--- a/new_rules_used.xlsx
+++ b/new_rules_used.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesbmurphy/Downloads/hpms-validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD8BAF5-EB9E-7C41-B94D-83EC082FFB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1046">
   <si>
     <t>Rule</t>
   </si>
@@ -3073,54 +3092,12 @@
     <t>['MEDIAN_TYPE']</t>
   </si>
   <si>
-    <t>['FACILITY_TYPE', 'MEDIAN_WIDTH']</t>
-  </si>
-  <si>
     <t>['SHOULDER_WIDTH_L']</t>
   </si>
   <si>
-    <t>['F_SYSTEM', 'IRI', 'IRI_VALUE_DATE', 'IRI_VALUE_TEXT', 'NHS', 'SAMPLE_ID']</t>
-  </si>
-  <si>
-    <t>['F_SYSTEM', 'NHS', 'RUTTING', 'RUTTING_VALUE_DATE', 'RUTTING_VALUE_TEXT', 'SAMPLE_ID']</t>
-  </si>
-  <si>
-    <t>['FAULTING', 'FAULTING_VALUE_DATE', 'FAULTING_VALUE_TEXT', 'F_SYSTEM', 'NHS', 'SAMPLE_ID']</t>
-  </si>
-  <si>
-    <t>['CRACKING_PERCENT', 'CRACKING_PERCENT_VALUE_DATE', 'CRACKING_PERCENT_VALUE_TEXT', 'F_SYSTEM', 'HPMS_SAMPLE_NO', 'NHS']</t>
-  </si>
-  <si>
-    <t>['CRACKING_PERCENT', 'CRACKING_PERCENT_VALUE_DATE', 'CRACKING_PERCENT_VALUE_TEXT', 'F_SYSTEM']</t>
-  </si>
-  <si>
-    <t>['FAULTING', 'FAULTING_VALUE_DATE', 'FAULTING_VALUE_TEXT', 'F_SYSTEM']</t>
-  </si>
-  <si>
     <t>['F_SYSTEM', 'IRI', 'IRI_VALUE_DATE', 'IRI_VALUE_TEXT']</t>
   </si>
   <si>
-    <t>['F_SYSTEM', 'RUTTING', 'RUTTING_VALUE_DATE', 'RUTTING_VALUE_TEXT']</t>
-  </si>
-  <si>
-    <t>['CRACKING_PERCENT', 'CRACKING_PERCENT_VALUE_DATE', 'CRACKING_PERCENT_VALUE_TEXT', 'F_SYSTEM', 'NHS']</t>
-  </si>
-  <si>
-    <t>['FAULTING', 'FAULTING_VALUE_DATE', 'FAULTING_VALUE_TEXT', 'F_SYSTEM', 'NHS']</t>
-  </si>
-  <si>
-    <t>['F_SYSTEM', 'IRI', 'IRI_VALUE_DATE', 'IRI_VALUE_TEXT', 'NHS']</t>
-  </si>
-  <si>
-    <t>['F_SYSTEM', 'NHS', 'RUTTING', 'RUTTING_VALUE_DATE', 'RUTTING_VALUE_TEXT']</t>
-  </si>
-  <si>
-    <t>['F_SYSTEM', 'HPMS_SAMPLE_NO', 'NHS', 'PSR', 'PSR_VALUE_DATE', 'PSR_VALUE_TEXT']</t>
-  </si>
-  <si>
-    <t>['F_SYSTEM', 'PSR', 'PSR_VALUE_DATE', 'PSR_VALUE_TEXT']</t>
-  </si>
-  <si>
     <t>['RUTTING', 'RUTTING_VALUE_DATE', 'RUTTING_VALUE_TEXT']</t>
   </si>
   <si>
@@ -3149,13 +3126,58 @@
   </si>
   <si>
     <t>['HPMS_SAMPLE_NO', 'SAMPLE']</t>
+  </si>
+  <si>
+    <t>['FACILITY_TYPE', 'MEDIAN_WIDTH','MEDIAN_TYPE']</t>
+  </si>
+  <si>
+    <t>['FAULTING', 'FAULTING_VALUE_DATE', 'FAULTING_VALUE_TEXT', 'F_SYSTEM','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['F_SYSTEM', 'IRI', 'IRI_VALUE_DATE', 'IRI_VALUE_TEXT','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['F_SYSTEM', 'RUTTING', 'RUTTING_VALUE_DATE', 'RUTTING_VALUE_TEXT','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['CRACKING_PERCENT', 'CRACKING_PERCENT_VALUE_DATE', 'CRACKING_PERCENT_VALUE_TEXT', 'F_SYSTEM', 'NHS','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['FAULTING', 'FAULTING_VALUE_DATE', 'FAULTING_VALUE_TEXT', 'F_SYSTEM', 'NHS','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['F_SYSTEM', 'IRI', 'IRI_VALUE_DATE', 'IRI_VALUE_TEXT', 'NHS','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['F_SYSTEM', 'NHS', 'RUTTING', 'RUTTING_VALUE_DATE', 'RUTTING_VALUE_TEXT','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['F_SYSTEM', 'HPMS_SAMPLE_NO', 'NHS', 'PSR', 'PSR_VALUE_DATE', 'PSR_VALUE_TEXT','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['F_SYSTEM', 'PSR', 'PSR_VALUE_DATE', 'PSR_VALUE_TEXT','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['F_SYSTEM', 'IRI', 'IRI_VALUE_DATE', 'IRI_VALUE_TEXT', 'NHS', 'SAMPLE_ID','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['F_SYSTEM', 'NHS', 'RUTTING', 'RUTTING_VALUE_DATE', 'RUTTING_VALUE_TEXT', 'SAMPLE_ID','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['FAULTING', 'FAULTING_VALUE_DATE', 'FAULTING_VALUE_TEXT', 'F_SYSTEM', 'NHS', 'SAMPLE_ID','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['CRACKING_PERCENT', 'CRACKING_PERCENT_VALUE_DATE', 'CRACKING_PERCENT_VALUE_TEXT', 'F_SYSTEM', 'HPMS_SAMPLE_NO', 'NHS','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['CRACKING_PERCENT', 'CRACKING_PERCENT_VALUE_DATE', 'CRACKING_PERCENT_VALUE_TEXT', 'F_SYSTEM','Begin_Date']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3207,10 +3229,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3218,13 +3246,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3262,7 +3298,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3296,6 +3332,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3330,9 +3367,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3505,14 +3543,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C367" workbookViewId="0">
+      <selection activeCell="G387" sqref="G387"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="101.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3525,7 +3570,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3535,14 +3580,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>560</v>
       </c>
       <c r="F2" t="s">
@@ -3552,14 +3597,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>561</v>
       </c>
       <c r="F3" t="s">
@@ -3569,14 +3614,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>562</v>
       </c>
       <c r="F4" t="s">
@@ -3586,14 +3631,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>563</v>
       </c>
       <c r="F5" t="s">
@@ -3603,14 +3648,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>564</v>
       </c>
       <c r="F6" t="s">
@@ -3620,14 +3665,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>565</v>
       </c>
       <c r="F7" t="s">
@@ -3637,14 +3682,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>566</v>
       </c>
       <c r="F8" t="s">
@@ -3654,14 +3699,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>567</v>
       </c>
       <c r="F9" t="s">
@@ -3671,14 +3716,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>568</v>
       </c>
       <c r="F10" t="s">
@@ -3688,14 +3733,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>569</v>
       </c>
       <c r="F11" t="s">
@@ -3705,14 +3750,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>570</v>
       </c>
       <c r="F12" t="s">
@@ -3722,14 +3767,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>571</v>
       </c>
       <c r="F13" t="s">
@@ -3739,14 +3784,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>572</v>
       </c>
       <c r="F14" t="s">
@@ -3756,14 +3801,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>573</v>
       </c>
       <c r="F15" t="s">
@@ -3773,14 +3818,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>574</v>
       </c>
       <c r="F16" t="s">
@@ -3790,14 +3835,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>575</v>
       </c>
       <c r="F17" t="s">
@@ -3807,14 +3852,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>576</v>
       </c>
       <c r="F18" t="s">
@@ -3824,14 +3869,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>577</v>
       </c>
       <c r="F19" t="s">
@@ -3841,14 +3886,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>578</v>
       </c>
       <c r="F20" t="s">
@@ -3858,14 +3903,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>579</v>
       </c>
       <c r="F21" t="s">
@@ -3875,14 +3920,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>580</v>
       </c>
       <c r="F22" t="s">
@@ -3892,14 +3937,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>581</v>
       </c>
       <c r="F23" t="s">
@@ -3909,14 +3954,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>582</v>
       </c>
       <c r="F24" t="s">
@@ -3926,14 +3971,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>583</v>
       </c>
       <c r="F25" t="s">
@@ -3943,14 +3988,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>584</v>
       </c>
       <c r="F26" t="s">
@@ -3960,14 +4005,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>585</v>
       </c>
       <c r="F27" t="s">
@@ -3977,14 +4022,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>586</v>
       </c>
       <c r="F28" t="s">
@@ -3994,14 +4039,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>587</v>
       </c>
       <c r="F29" t="s">
@@ -4011,14 +4056,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>588</v>
       </c>
       <c r="F30" t="s">
@@ -4028,14 +4073,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>589</v>
       </c>
       <c r="F31" t="s">
@@ -4045,14 +4090,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>590</v>
       </c>
       <c r="F32" t="s">
@@ -4062,14 +4107,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>591</v>
       </c>
       <c r="F33" t="s">
@@ -4079,14 +4124,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>592</v>
       </c>
       <c r="F34" t="s">
@@ -4096,14 +4141,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>593</v>
       </c>
       <c r="F35" t="s">
@@ -4113,14 +4158,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>594</v>
       </c>
       <c r="F36" t="s">
@@ -4130,14 +4175,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>595</v>
       </c>
       <c r="F37" t="s">
@@ -4147,14 +4192,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
         <v>596</v>
       </c>
       <c r="F38" t="s">
@@ -4164,14 +4209,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>597</v>
       </c>
       <c r="F39" t="s">
@@ -4181,14 +4226,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>598</v>
       </c>
       <c r="F40" t="s">
@@ -4198,14 +4243,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>599</v>
       </c>
       <c r="F41" t="s">
@@ -4215,14 +4260,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>600</v>
       </c>
       <c r="F42" t="s">
@@ -4232,14 +4277,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>601</v>
       </c>
       <c r="F43" t="s">
@@ -4249,14 +4294,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3" t="s">
         <v>602</v>
       </c>
       <c r="F44" t="s">
@@ -4266,14 +4311,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="3" t="s">
         <v>603</v>
       </c>
       <c r="F45" t="s">
@@ -4283,14 +4328,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="3" t="s">
         <v>604</v>
       </c>
       <c r="F46" t="s">
@@ -4300,14 +4345,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>605</v>
       </c>
       <c r="F47" t="s">
@@ -4317,14 +4362,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>53</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>606</v>
       </c>
       <c r="F48" t="s">
@@ -4334,14 +4379,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>54</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="3" t="s">
         <v>607</v>
       </c>
       <c r="F49" t="s">
@@ -4351,14 +4396,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>608</v>
       </c>
       <c r="F50" t="s">
@@ -4368,14 +4413,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="3" t="s">
         <v>609</v>
       </c>
       <c r="F51" t="s">
@@ -4385,14 +4430,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>610</v>
       </c>
       <c r="F52" t="s">
@@ -4402,14 +4447,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="3" t="s">
         <v>611</v>
       </c>
       <c r="F53" t="s">
@@ -4419,14 +4464,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>59</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="3" t="s">
         <v>612</v>
       </c>
       <c r="F54" t="s">
@@ -4436,14 +4481,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="3" t="s">
         <v>613</v>
       </c>
       <c r="F55" t="s">
@@ -4453,14 +4498,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>61</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="3" t="s">
         <v>614</v>
       </c>
       <c r="F56" t="s">
@@ -4470,14 +4515,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>62</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="3" t="s">
         <v>615</v>
       </c>
       <c r="F57" t="s">
@@ -4487,7 +4532,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -4500,7 +4545,7 @@
       <c r="D58" t="s">
         <v>482</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="3" t="s">
         <v>616</v>
       </c>
       <c r="F58" t="s">
@@ -4510,7 +4555,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -4523,7 +4568,7 @@
       <c r="D59" t="s">
         <v>483</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="3" t="s">
         <v>617</v>
       </c>
       <c r="F59" t="s">
@@ -4533,7 +4578,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -4546,7 +4591,7 @@
       <c r="D60" t="s">
         <v>483</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="3" t="s">
         <v>618</v>
       </c>
       <c r="F60" t="s">
@@ -4556,7 +4601,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -4569,7 +4614,7 @@
       <c r="D61" t="s">
         <v>484</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="3" t="s">
         <v>619</v>
       </c>
       <c r="F61" t="s">
@@ -4579,7 +4624,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -4592,7 +4637,7 @@
       <c r="D62" t="s">
         <v>484</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="3" t="s">
         <v>620</v>
       </c>
       <c r="F62" t="s">
@@ -4602,7 +4647,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -4615,7 +4660,7 @@
       <c r="D63" t="s">
         <v>484</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="3" t="s">
         <v>621</v>
       </c>
       <c r="F63" t="s">
@@ -4625,7 +4670,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -4638,7 +4683,7 @@
       <c r="D64" t="s">
         <v>485</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="3" t="s">
         <v>622</v>
       </c>
       <c r="F64" t="s">
@@ -4648,7 +4693,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -4661,7 +4706,7 @@
       <c r="D65" t="s">
         <v>485</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="3" t="s">
         <v>623</v>
       </c>
       <c r="F65" t="s">
@@ -4671,7 +4716,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -4684,7 +4729,7 @@
       <c r="D66" t="s">
         <v>485</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="3" t="s">
         <v>624</v>
       </c>
       <c r="F66" t="s">
@@ -4694,7 +4739,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -4707,7 +4752,7 @@
       <c r="D67" t="s">
         <v>486</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="3" t="s">
         <v>625</v>
       </c>
       <c r="F67" t="s">
@@ -4717,7 +4762,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -4730,7 +4775,7 @@
       <c r="D68" t="s">
         <v>486</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="3" t="s">
         <v>626</v>
       </c>
       <c r="F68" t="s">
@@ -4740,7 +4785,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -4753,7 +4798,7 @@
       <c r="D69" t="s">
         <v>486</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="3" t="s">
         <v>627</v>
       </c>
       <c r="F69" t="s">
@@ -4763,7 +4808,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -4776,7 +4821,7 @@
       <c r="D70" t="s">
         <v>487</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="3" t="s">
         <v>628</v>
       </c>
       <c r="F70" t="s">
@@ -4786,7 +4831,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -4799,7 +4844,7 @@
       <c r="D71" t="s">
         <v>487</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="3" t="s">
         <v>629</v>
       </c>
       <c r="F71" t="s">
@@ -4809,7 +4854,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -4822,7 +4867,7 @@
       <c r="D72" t="s">
         <v>487</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="3" t="s">
         <v>630</v>
       </c>
       <c r="F72" t="s">
@@ -4832,7 +4877,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -4845,7 +4890,7 @@
       <c r="D73" t="s">
         <v>488</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="3" t="s">
         <v>631</v>
       </c>
       <c r="F73" t="s">
@@ -4855,7 +4900,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -4868,7 +4913,7 @@
       <c r="D74" t="s">
         <v>488</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="3" t="s">
         <v>632</v>
       </c>
       <c r="F74" t="s">
@@ -4878,7 +4923,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -4891,7 +4936,7 @@
       <c r="D75" t="s">
         <v>488</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="3" t="s">
         <v>633</v>
       </c>
       <c r="F75" t="s">
@@ -4901,7 +4946,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -4914,7 +4959,7 @@
       <c r="D76" t="s">
         <v>485</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="3" t="s">
         <v>634</v>
       </c>
       <c r="F76" t="s">
@@ -4924,7 +4969,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -4937,7 +4982,7 @@
       <c r="D77" t="s">
         <v>486</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="3" t="s">
         <v>635</v>
       </c>
       <c r="F77" t="s">
@@ -4947,7 +4992,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -4960,7 +5005,7 @@
       <c r="D78" t="s">
         <v>488</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="3" t="s">
         <v>636</v>
       </c>
       <c r="F78" t="s">
@@ -4970,7 +5015,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -4983,7 +5028,7 @@
       <c r="D79" t="s">
         <v>487</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="3" t="s">
         <v>637</v>
       </c>
       <c r="F79" t="s">
@@ -4993,7 +5038,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -5006,7 +5051,7 @@
       <c r="D80" t="s">
         <v>489</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="3" t="s">
         <v>638</v>
       </c>
       <c r="F80" t="s">
@@ -5016,14 +5061,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>86</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="3" t="s">
         <v>639</v>
       </c>
       <c r="F81" t="s">
@@ -5033,14 +5078,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>87</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="3" t="s">
         <v>640</v>
       </c>
       <c r="F82" t="s">
@@ -5050,14 +5095,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>88</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="3" t="s">
         <v>641</v>
       </c>
       <c r="F83" t="s">
@@ -5067,14 +5112,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>89</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="3" t="s">
         <v>642</v>
       </c>
       <c r="F84" t="s">
@@ -5084,14 +5129,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>90</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="3" t="s">
         <v>643</v>
       </c>
       <c r="F85" t="s">
@@ -5101,14 +5146,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>91</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="3" t="s">
         <v>644</v>
       </c>
       <c r="F86" t="s">
@@ -5118,14 +5163,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>92</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="3" t="s">
         <v>645</v>
       </c>
       <c r="F87" t="s">
@@ -5135,14 +5180,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>93</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="3" t="s">
         <v>646</v>
       </c>
       <c r="F88" t="s">
@@ -5152,14 +5197,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>94</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="3" t="s">
         <v>647</v>
       </c>
       <c r="F89" t="s">
@@ -5169,14 +5214,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="3" t="s">
         <v>648</v>
       </c>
       <c r="F90" t="s">
@@ -5186,14 +5231,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="3" t="s">
         <v>649</v>
       </c>
       <c r="F91" t="s">
@@ -5203,14 +5248,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>97</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="3" t="s">
         <v>650</v>
       </c>
       <c r="F92" t="s">
@@ -5220,14 +5265,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>98</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="3" t="s">
         <v>651</v>
       </c>
       <c r="F93" t="s">
@@ -5237,14 +5282,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>99</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="3" t="s">
         <v>652</v>
       </c>
       <c r="F94" t="s">
@@ -5254,14 +5299,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>100</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="3" t="s">
         <v>653</v>
       </c>
       <c r="F95" t="s">
@@ -5271,14 +5316,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>101</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="3" t="s">
         <v>654</v>
       </c>
       <c r="F96" t="s">
@@ -5288,14 +5333,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>102</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="3" t="s">
         <v>655</v>
       </c>
       <c r="F97" t="s">
@@ -5305,14 +5350,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>103</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="3" t="s">
         <v>656</v>
       </c>
       <c r="F98" t="s">
@@ -5322,14 +5367,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>104</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="3" t="s">
         <v>657</v>
       </c>
       <c r="F99" t="s">
@@ -5339,14 +5384,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>105</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="3" t="s">
         <v>658</v>
       </c>
       <c r="F100" t="s">
@@ -5356,14 +5401,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>106</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="3" t="s">
         <v>659</v>
       </c>
       <c r="F101" t="s">
@@ -5373,14 +5418,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>107</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="3" t="s">
         <v>660</v>
       </c>
       <c r="F102" t="s">
@@ -5390,14 +5435,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>108</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="3" t="s">
         <v>661</v>
       </c>
       <c r="F103" t="s">
@@ -5407,14 +5452,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>109</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="3" t="s">
         <v>662</v>
       </c>
       <c r="F104" t="s">
@@ -5424,14 +5469,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>110</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F105" t="s">
@@ -5441,14 +5486,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>111</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="3" t="s">
         <v>664</v>
       </c>
       <c r="F106" t="s">
@@ -5458,14 +5503,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>112</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="3" t="s">
         <v>665</v>
       </c>
       <c r="F107" t="s">
@@ -5475,14 +5520,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>113</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F108" t="s">
@@ -5492,14 +5537,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>114</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="3" t="s">
         <v>667</v>
       </c>
       <c r="F109" t="s">
@@ -5509,14 +5554,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>115</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="3" t="s">
         <v>668</v>
       </c>
       <c r="F110" t="s">
@@ -5526,14 +5571,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>116</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="3" t="s">
         <v>669</v>
       </c>
       <c r="F111" t="s">
@@ -5543,14 +5588,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>117</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="3" t="s">
         <v>670</v>
       </c>
       <c r="F112" t="s">
@@ -5560,7 +5605,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -5573,7 +5618,7 @@
       <c r="D113" t="s">
         <v>490</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F113" t="s">
@@ -5583,7 +5628,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -5596,7 +5641,7 @@
       <c r="D114" t="s">
         <v>491</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="3" t="s">
         <v>672</v>
       </c>
       <c r="F114" t="s">
@@ -5606,7 +5651,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -5619,7 +5664,7 @@
       <c r="D115" t="s">
         <v>492</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F115" t="s">
@@ -5629,7 +5674,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -5642,7 +5687,7 @@
       <c r="D116" t="s">
         <v>493</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="3" t="s">
         <v>674</v>
       </c>
       <c r="F116" t="s">
@@ -5652,7 +5697,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -5665,7 +5710,7 @@
       <c r="D117" t="s">
         <v>490</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="3" t="s">
         <v>675</v>
       </c>
       <c r="F117" t="s">
@@ -5675,7 +5720,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -5688,7 +5733,7 @@
       <c r="D118" t="s">
         <v>491</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="3" t="s">
         <v>676</v>
       </c>
       <c r="F118" t="s">
@@ -5698,7 +5743,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -5711,7 +5756,7 @@
       <c r="D119" t="s">
         <v>490</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="3" t="s">
         <v>677</v>
       </c>
       <c r="F119" t="s">
@@ -5721,7 +5766,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -5734,7 +5779,7 @@
       <c r="D120" t="s">
         <v>494</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="3" t="s">
         <v>678</v>
       </c>
       <c r="F120" t="s">
@@ -5744,7 +5789,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -5757,7 +5802,7 @@
       <c r="D121" t="s">
         <v>495</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="3" t="s">
         <v>679</v>
       </c>
       <c r="F121" t="s">
@@ -5767,7 +5812,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -5780,7 +5825,7 @@
       <c r="D122" t="s">
         <v>495</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="3" t="s">
         <v>680</v>
       </c>
       <c r="F122" t="s">
@@ -5790,7 +5835,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -5803,7 +5848,7 @@
       <c r="D123" t="s">
         <v>496</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="3" t="s">
         <v>681</v>
       </c>
       <c r="F123" t="s">
@@ -5813,7 +5858,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -5826,7 +5871,7 @@
       <c r="D124" t="s">
         <v>496</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="3" t="s">
         <v>682</v>
       </c>
       <c r="F124" t="s">
@@ -5836,7 +5881,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -5849,7 +5894,7 @@
       <c r="D125" t="s">
         <v>497</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="3" t="s">
         <v>683</v>
       </c>
       <c r="F125" t="s">
@@ -5859,7 +5904,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -5872,7 +5917,7 @@
       <c r="D126" t="s">
         <v>498</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="3" t="s">
         <v>684</v>
       </c>
       <c r="F126" t="s">
@@ -5882,7 +5927,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -5895,7 +5940,7 @@
       <c r="D127" t="s">
         <v>498</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="3" t="s">
         <v>685</v>
       </c>
       <c r="F127" t="s">
@@ -5905,7 +5950,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -5918,7 +5963,7 @@
       <c r="D128" t="s">
         <v>499</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="3" t="s">
         <v>686</v>
       </c>
       <c r="F128" t="s">
@@ -5928,7 +5973,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -5941,7 +5986,7 @@
       <c r="D129" t="s">
         <v>499</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="3" t="s">
         <v>687</v>
       </c>
       <c r="F129" t="s">
@@ -5951,7 +5996,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -5964,7 +6009,7 @@
       <c r="D130" t="s">
         <v>499</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="3" t="s">
         <v>688</v>
       </c>
       <c r="F130" t="s">
@@ -5974,7 +6019,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -5987,7 +6032,7 @@
       <c r="D131" t="s">
         <v>500</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="3" t="s">
         <v>689</v>
       </c>
       <c r="F131" t="s">
@@ -5997,7 +6042,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>137</v>
       </c>
@@ -6010,7 +6055,7 @@
       <c r="D132" t="s">
         <v>500</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="3" t="s">
         <v>690</v>
       </c>
       <c r="F132" t="s">
@@ -6020,7 +6065,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>138</v>
       </c>
@@ -6033,7 +6078,7 @@
       <c r="D133" t="s">
         <v>499</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="3" t="s">
         <v>691</v>
       </c>
       <c r="F133" t="s">
@@ -6043,7 +6088,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>139</v>
       </c>
@@ -6056,7 +6101,7 @@
       <c r="D134" t="s">
         <v>501</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="3" t="s">
         <v>692</v>
       </c>
       <c r="F134" t="s">
@@ -6066,7 +6111,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -6079,7 +6124,7 @@
       <c r="D135" t="s">
         <v>501</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="3" t="s">
         <v>693</v>
       </c>
       <c r="F135" t="s">
@@ -6089,7 +6134,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>141</v>
       </c>
@@ -6102,7 +6147,7 @@
       <c r="D136" t="s">
         <v>502</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="3" t="s">
         <v>694</v>
       </c>
       <c r="F136" t="s">
@@ -6112,7 +6157,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>142</v>
       </c>
@@ -6125,7 +6170,7 @@
       <c r="D137" t="s">
         <v>502</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="3" t="s">
         <v>695</v>
       </c>
       <c r="F137" t="s">
@@ -6135,7 +6180,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>143</v>
       </c>
@@ -6148,7 +6193,7 @@
       <c r="D138" t="s">
         <v>501</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="3" t="s">
         <v>696</v>
       </c>
       <c r="F138" t="s">
@@ -6158,7 +6203,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -6171,7 +6216,7 @@
       <c r="D139" t="s">
         <v>503</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="3" t="s">
         <v>697</v>
       </c>
       <c r="F139" t="s">
@@ -6181,7 +6226,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -6194,7 +6239,7 @@
       <c r="D140" t="s">
         <v>504</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="3" t="s">
         <v>698</v>
       </c>
       <c r="F140" t="s">
@@ -6204,7 +6249,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>146</v>
       </c>
@@ -6217,7 +6262,7 @@
       <c r="D141" t="s">
         <v>504</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="3" t="s">
         <v>699</v>
       </c>
       <c r="F141" t="s">
@@ -6227,7 +6272,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -6240,7 +6285,7 @@
       <c r="D142" t="s">
         <v>505</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="3" t="s">
         <v>700</v>
       </c>
       <c r="F142" t="s">
@@ -6250,14 +6295,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>148</v>
       </c>
       <c r="C143" t="b">
         <v>0</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="3" t="s">
         <v>701</v>
       </c>
       <c r="F143" t="s">
@@ -6267,14 +6312,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>149</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="3" t="s">
         <v>661</v>
       </c>
       <c r="F144" t="s">
@@ -6284,14 +6329,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>150</v>
       </c>
       <c r="C145" t="b">
         <v>0</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="3" t="s">
         <v>702</v>
       </c>
       <c r="F145" t="s">
@@ -6301,14 +6346,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>151</v>
       </c>
       <c r="C146" t="b">
         <v>0</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="3" t="s">
         <v>703</v>
       </c>
       <c r="F146" t="s">
@@ -6318,14 +6363,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>152</v>
       </c>
       <c r="C147" t="b">
         <v>0</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="3" t="s">
         <v>704</v>
       </c>
       <c r="F147" t="s">
@@ -6335,14 +6380,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>153</v>
       </c>
       <c r="C148" t="b">
         <v>0</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="3" t="s">
         <v>705</v>
       </c>
       <c r="F148" t="s">
@@ -6352,14 +6397,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>154</v>
       </c>
       <c r="C149" t="b">
         <v>0</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="3" t="s">
         <v>706</v>
       </c>
       <c r="F149" t="s">
@@ -6369,14 +6414,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>155</v>
       </c>
       <c r="C150" t="b">
         <v>0</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="3" t="s">
         <v>707</v>
       </c>
       <c r="F150" t="s">
@@ -6386,14 +6431,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>156</v>
       </c>
       <c r="C151" t="b">
         <v>0</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="3" t="s">
         <v>708</v>
       </c>
       <c r="F151" t="s">
@@ -6403,14 +6448,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>157</v>
       </c>
       <c r="C152" t="b">
         <v>0</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="3" t="s">
         <v>709</v>
       </c>
       <c r="F152" t="s">
@@ -6420,14 +6465,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>158</v>
       </c>
       <c r="C153" t="b">
         <v>0</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="3" t="s">
         <v>660</v>
       </c>
       <c r="F153" t="s">
@@ -6437,14 +6482,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>159</v>
       </c>
       <c r="C154" t="b">
         <v>0</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="3" t="s">
         <v>710</v>
       </c>
       <c r="F154" t="s">
@@ -6454,14 +6499,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>160</v>
       </c>
       <c r="C155" t="b">
         <v>0</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="3" t="s">
         <v>711</v>
       </c>
       <c r="F155" t="s">
@@ -6471,14 +6516,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>161</v>
       </c>
       <c r="C156" t="b">
         <v>0</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="3" t="s">
         <v>712</v>
       </c>
       <c r="F156" t="s">
@@ -6488,14 +6533,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>162</v>
       </c>
       <c r="C157" t="b">
         <v>0</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="3" t="s">
         <v>713</v>
       </c>
       <c r="F157" t="s">
@@ -6505,14 +6550,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>163</v>
       </c>
       <c r="C158" t="b">
         <v>0</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="3" t="s">
         <v>714</v>
       </c>
       <c r="F158" t="s">
@@ -6522,14 +6567,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>164</v>
       </c>
       <c r="C159" t="b">
         <v>0</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="3" t="s">
         <v>715</v>
       </c>
       <c r="F159" t="s">
@@ -6539,14 +6584,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>165</v>
       </c>
       <c r="C160" t="b">
         <v>0</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="3" t="s">
         <v>716</v>
       </c>
       <c r="F160" t="s">
@@ -6556,14 +6601,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>166</v>
       </c>
       <c r="C161" t="b">
         <v>0</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="3" t="s">
         <v>717</v>
       </c>
       <c r="F161" t="s">
@@ -6573,14 +6618,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>167</v>
       </c>
       <c r="C162" t="b">
         <v>0</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="3" t="s">
         <v>718</v>
       </c>
       <c r="F162" t="s">
@@ -6590,14 +6635,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>168</v>
       </c>
       <c r="C163" t="b">
         <v>0</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="3" t="s">
         <v>719</v>
       </c>
       <c r="F163" t="s">
@@ -6607,7 +6652,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -6620,7 +6665,7 @@
       <c r="D164" t="s">
         <v>490</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="3" t="s">
         <v>720</v>
       </c>
       <c r="F164" t="s">
@@ -6630,7 +6675,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -6643,7 +6688,7 @@
       <c r="D165" t="s">
         <v>494</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="3" t="s">
         <v>721</v>
       </c>
       <c r="F165" t="s">
@@ -6653,7 +6698,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -6666,7 +6711,7 @@
       <c r="D166" t="s">
         <v>496</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="3" t="s">
         <v>722</v>
       </c>
       <c r="F166" t="s">
@@ -6676,7 +6721,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -6689,7 +6734,7 @@
       <c r="D167" t="s">
         <v>497</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="3" t="s">
         <v>723</v>
       </c>
       <c r="F167" t="s">
@@ -6699,7 +6744,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -6712,7 +6757,7 @@
       <c r="D168" t="s">
         <v>498</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="3" t="s">
         <v>724</v>
       </c>
       <c r="F168" t="s">
@@ -6722,14 +6767,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>174</v>
       </c>
       <c r="C169" t="b">
         <v>0</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="3" t="s">
         <v>660</v>
       </c>
       <c r="F169" t="s">
@@ -6739,14 +6784,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>175</v>
       </c>
       <c r="C170" t="b">
         <v>0</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="3" t="s">
         <v>661</v>
       </c>
       <c r="F170" t="s">
@@ -6756,14 +6801,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>176</v>
       </c>
       <c r="C171" t="b">
         <v>0</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="3" t="s">
         <v>725</v>
       </c>
       <c r="F171" t="s">
@@ -6773,14 +6818,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>177</v>
       </c>
       <c r="C172" t="b">
         <v>0</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="3" t="s">
         <v>703</v>
       </c>
       <c r="F172" t="s">
@@ -6790,14 +6835,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>178</v>
       </c>
       <c r="C173" t="b">
         <v>0</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="3" t="s">
         <v>704</v>
       </c>
       <c r="F173" t="s">
@@ -6807,14 +6852,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>179</v>
       </c>
       <c r="C174" t="b">
         <v>0</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="3" t="s">
         <v>705</v>
       </c>
       <c r="F174" t="s">
@@ -6824,14 +6869,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>180</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="3" t="s">
         <v>726</v>
       </c>
       <c r="F175" t="s">
@@ -6841,14 +6886,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>181</v>
       </c>
       <c r="C176" t="b">
         <v>0</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="3" t="s">
         <v>727</v>
       </c>
       <c r="F176" t="s">
@@ -6858,14 +6903,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>182</v>
       </c>
       <c r="C177" t="b">
         <v>0</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="3" t="s">
         <v>728</v>
       </c>
       <c r="F177" t="s">
@@ -6875,14 +6920,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>183</v>
       </c>
       <c r="C178" t="b">
         <v>0</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="3" t="s">
         <v>729</v>
       </c>
       <c r="F178" t="s">
@@ -6892,14 +6937,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>184</v>
       </c>
       <c r="C179" t="b">
         <v>0</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="3" t="s">
         <v>730</v>
       </c>
       <c r="F179" t="s">
@@ -6909,14 +6954,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>185</v>
       </c>
       <c r="C180" t="b">
         <v>0</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="3" t="s">
         <v>710</v>
       </c>
       <c r="F180" t="s">
@@ -6926,14 +6971,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>186</v>
       </c>
       <c r="C181" t="b">
         <v>0</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="3" t="s">
         <v>731</v>
       </c>
       <c r="F181" t="s">
@@ -6943,14 +6988,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>187</v>
       </c>
       <c r="C182" t="b">
         <v>0</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="3" t="s">
         <v>712</v>
       </c>
       <c r="F182" t="s">
@@ -6960,14 +7005,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>188</v>
       </c>
       <c r="C183" t="b">
         <v>0</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="3" t="s">
         <v>713</v>
       </c>
       <c r="F183" t="s">
@@ -6977,14 +7022,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>189</v>
       </c>
       <c r="C184" t="b">
         <v>0</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="3" t="s">
         <v>732</v>
       </c>
       <c r="F184" t="s">
@@ -6994,14 +7039,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>190</v>
       </c>
       <c r="C185" t="b">
         <v>0</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="3" t="s">
         <v>733</v>
       </c>
       <c r="F185" t="s">
@@ -7011,14 +7056,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>191</v>
       </c>
       <c r="C186" t="b">
         <v>0</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="3" t="s">
         <v>734</v>
       </c>
       <c r="F186" t="s">
@@ -7028,14 +7073,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>192</v>
       </c>
       <c r="C187" t="b">
         <v>0</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="3" t="s">
         <v>735</v>
       </c>
       <c r="F187" t="s">
@@ -7045,14 +7090,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>193</v>
       </c>
       <c r="C188" t="b">
         <v>0</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="3" t="s">
         <v>736</v>
       </c>
       <c r="F188" t="s">
@@ -7062,14 +7107,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>194</v>
       </c>
       <c r="C189" t="b">
         <v>0</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="3" t="s">
         <v>737</v>
       </c>
       <c r="F189" t="s">
@@ -7079,14 +7124,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>195</v>
       </c>
       <c r="C190" t="b">
         <v>0</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="3" t="s">
         <v>660</v>
       </c>
       <c r="F190" t="s">
@@ -7096,14 +7141,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>196</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="3" t="s">
         <v>710</v>
       </c>
       <c r="F191" t="s">
@@ -7113,14 +7158,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>197</v>
       </c>
       <c r="C192" t="b">
         <v>0</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="3" t="s">
         <v>738</v>
       </c>
       <c r="F192" t="s">
@@ -7130,14 +7175,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>198</v>
       </c>
       <c r="C193" t="b">
         <v>0</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="3" t="s">
         <v>712</v>
       </c>
       <c r="F193" t="s">
@@ -7147,14 +7192,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>199</v>
       </c>
       <c r="C194" t="b">
         <v>0</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="3" t="s">
         <v>713</v>
       </c>
       <c r="F194" t="s">
@@ -7164,14 +7209,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>200</v>
       </c>
       <c r="C195" t="b">
         <v>0</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="3" t="s">
         <v>739</v>
       </c>
       <c r="F195" t="s">
@@ -7181,14 +7226,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>201</v>
       </c>
       <c r="C196" t="b">
         <v>0</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="3" t="s">
         <v>740</v>
       </c>
       <c r="F196" t="s">
@@ -7198,14 +7243,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>202</v>
       </c>
       <c r="C197" t="b">
         <v>0</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="3" t="s">
         <v>741</v>
       </c>
       <c r="F197" t="s">
@@ -7215,14 +7260,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>203</v>
       </c>
       <c r="C198" t="b">
         <v>0</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="3" t="s">
         <v>742</v>
       </c>
       <c r="F198" t="s">
@@ -7232,14 +7277,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>204</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="3" t="s">
         <v>743</v>
       </c>
       <c r="F199" t="s">
@@ -7249,14 +7294,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>205</v>
       </c>
       <c r="C200" t="b">
         <v>0</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="3" t="s">
         <v>719</v>
       </c>
       <c r="F200" t="s">
@@ -7266,14 +7311,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>206</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="3" t="s">
         <v>744</v>
       </c>
       <c r="F201" t="s">
@@ -7283,14 +7328,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>207</v>
       </c>
       <c r="C202" t="b">
         <v>0</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="3" t="s">
         <v>745</v>
       </c>
       <c r="F202" t="s">
@@ -7300,14 +7345,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>208</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="3" t="s">
         <v>746</v>
       </c>
       <c r="F203" t="s">
@@ -7317,14 +7362,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>209</v>
       </c>
       <c r="C204" t="b">
         <v>0</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="3" t="s">
         <v>747</v>
       </c>
       <c r="F204" t="s">
@@ -7334,7 +7379,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>210</v>
       </c>
@@ -7347,7 +7392,7 @@
       <c r="D205" t="s">
         <v>493</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="3" t="s">
         <v>748</v>
       </c>
       <c r="F205" t="s">
@@ -7357,7 +7402,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>211</v>
       </c>
@@ -7370,7 +7415,7 @@
       <c r="D206" t="s">
         <v>491</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="3" t="s">
         <v>749</v>
       </c>
       <c r="F206" t="s">
@@ -7380,7 +7425,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>212</v>
       </c>
@@ -7393,7 +7438,7 @@
       <c r="D207" t="s">
         <v>506</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="3" t="s">
         <v>750</v>
       </c>
       <c r="F207" t="s">
@@ -7403,7 +7448,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>213</v>
       </c>
@@ -7416,7 +7461,7 @@
       <c r="D208" t="s">
         <v>507</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="3" t="s">
         <v>751</v>
       </c>
       <c r="F208" t="s">
@@ -7426,7 +7471,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>214</v>
       </c>
@@ -7439,7 +7484,7 @@
       <c r="D209" t="s">
         <v>492</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="3" t="s">
         <v>752</v>
       </c>
       <c r="F209" t="s">
@@ -7449,7 +7494,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>215</v>
       </c>
@@ -7462,7 +7507,7 @@
       <c r="D210" t="s">
         <v>483</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="3" t="s">
         <v>753</v>
       </c>
       <c r="F210" t="s">
@@ -7472,7 +7517,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -7485,7 +7530,7 @@
       <c r="D211" t="s">
         <v>508</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="3" t="s">
         <v>754</v>
       </c>
       <c r="F211" t="s">
@@ -7495,7 +7540,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>217</v>
       </c>
@@ -7508,7 +7553,7 @@
       <c r="D212" t="s">
         <v>509</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="3" t="s">
         <v>755</v>
       </c>
       <c r="F212" t="s">
@@ -7518,7 +7563,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>218</v>
       </c>
@@ -7531,7 +7576,7 @@
       <c r="D213" t="s">
         <v>510</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="3" t="s">
         <v>756</v>
       </c>
       <c r="F213" t="s">
@@ -7541,7 +7586,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>219</v>
       </c>
@@ -7554,7 +7599,7 @@
       <c r="D214" t="s">
         <v>511</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="3" t="s">
         <v>757</v>
       </c>
       <c r="F214" t="s">
@@ -7564,7 +7609,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -7577,7 +7622,7 @@
       <c r="D215" t="s">
         <v>512</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="3" t="s">
         <v>758</v>
       </c>
       <c r="F215" t="s">
@@ -7587,7 +7632,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>221</v>
       </c>
@@ -7600,7 +7645,7 @@
       <c r="D216" t="s">
         <v>513</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="3" t="s">
         <v>759</v>
       </c>
       <c r="F216" t="s">
@@ -7610,7 +7655,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>222</v>
       </c>
@@ -7623,7 +7668,7 @@
       <c r="D217" t="s">
         <v>514</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="3" t="s">
         <v>760</v>
       </c>
       <c r="F217" t="s">
@@ -7633,7 +7678,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>223</v>
       </c>
@@ -7646,7 +7691,7 @@
       <c r="D218" t="s">
         <v>515</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="3" t="s">
         <v>761</v>
       </c>
       <c r="F218" t="s">
@@ -7656,7 +7701,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>224</v>
       </c>
@@ -7669,7 +7714,7 @@
       <c r="D219" t="s">
         <v>495</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="3" t="s">
         <v>762</v>
       </c>
       <c r="F219" t="s">
@@ -7679,7 +7724,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>225</v>
       </c>
@@ -7692,7 +7737,7 @@
       <c r="D220" t="s">
         <v>516</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="3" t="s">
         <v>763</v>
       </c>
       <c r="F220" t="s">
@@ -7702,7 +7747,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>226</v>
       </c>
@@ -7715,7 +7760,7 @@
       <c r="D221" t="s">
         <v>517</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="3" t="s">
         <v>764</v>
       </c>
       <c r="F221" t="s">
@@ -7725,7 +7770,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>227</v>
       </c>
@@ -7738,7 +7783,7 @@
       <c r="D222" t="s">
         <v>518</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="3" t="s">
         <v>765</v>
       </c>
       <c r="F222" t="s">
@@ -7748,7 +7793,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>228</v>
       </c>
@@ -7761,7 +7806,7 @@
       <c r="D223" t="s">
         <v>519</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="3" t="s">
         <v>766</v>
       </c>
       <c r="F223" t="s">
@@ -7771,7 +7816,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>229</v>
       </c>
@@ -7784,7 +7829,7 @@
       <c r="D224" t="s">
         <v>499</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="3" t="s">
         <v>767</v>
       </c>
       <c r="F224" t="s">
@@ -7794,7 +7839,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>230</v>
       </c>
@@ -7807,7 +7852,7 @@
       <c r="D225" t="s">
         <v>500</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="3" t="s">
         <v>768</v>
       </c>
       <c r="F225" t="s">
@@ -7817,7 +7862,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>231</v>
       </c>
@@ -7830,7 +7875,7 @@
       <c r="D226" t="s">
         <v>501</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="3" t="s">
         <v>769</v>
       </c>
       <c r="F226" t="s">
@@ -7840,7 +7885,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>232</v>
       </c>
@@ -7853,7 +7898,7 @@
       <c r="D227" t="s">
         <v>502</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="3" t="s">
         <v>768</v>
       </c>
       <c r="F227" t="s">
@@ -7863,7 +7908,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>233</v>
       </c>
@@ -7876,7 +7921,7 @@
       <c r="D228" t="s">
         <v>503</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="3" t="s">
         <v>770</v>
       </c>
       <c r="F228" t="s">
@@ -7886,7 +7931,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>234</v>
       </c>
@@ -7899,7 +7944,7 @@
       <c r="D229" t="s">
         <v>504</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="3" t="s">
         <v>771</v>
       </c>
       <c r="F229" t="s">
@@ -7909,7 +7954,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>235</v>
       </c>
@@ -7922,7 +7967,7 @@
       <c r="D230" t="s">
         <v>505</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="3" t="s">
         <v>772</v>
       </c>
       <c r="F230" t="s">
@@ -7932,7 +7977,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>236</v>
       </c>
@@ -7945,7 +7990,7 @@
       <c r="D231" t="s">
         <v>520</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="3" t="s">
         <v>773</v>
       </c>
       <c r="F231" t="s">
@@ -7955,7 +8000,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>237</v>
       </c>
@@ -7968,7 +8013,7 @@
       <c r="D232" t="s">
         <v>521</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="3" t="s">
         <v>774</v>
       </c>
       <c r="F232" t="s">
@@ -7978,7 +8023,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>238</v>
       </c>
@@ -7991,7 +8036,7 @@
       <c r="D233" t="s">
         <v>522</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="3" t="s">
         <v>775</v>
       </c>
       <c r="F233" t="s">
@@ -8001,7 +8046,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>239</v>
       </c>
@@ -8014,7 +8059,7 @@
       <c r="D234" t="s">
         <v>523</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="3" t="s">
         <v>776</v>
       </c>
       <c r="F234" t="s">
@@ -8024,7 +8069,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>240</v>
       </c>
@@ -8037,7 +8082,7 @@
       <c r="D235" t="s">
         <v>524</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="3" t="s">
         <v>777</v>
       </c>
       <c r="F235" t="s">
@@ -8047,7 +8092,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>241</v>
       </c>
@@ -8060,7 +8105,7 @@
       <c r="D236" t="s">
         <v>525</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="3" t="s">
         <v>778</v>
       </c>
       <c r="F236" t="s">
@@ -8070,7 +8115,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>242</v>
       </c>
@@ -8083,7 +8128,7 @@
       <c r="D237" t="s">
         <v>526</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="3" t="s">
         <v>779</v>
       </c>
       <c r="F237" t="s">
@@ -8093,7 +8138,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>243</v>
       </c>
@@ -8106,7 +8151,7 @@
       <c r="D238" t="s">
         <v>527</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="3" t="s">
         <v>780</v>
       </c>
       <c r="F238" t="s">
@@ -8116,7 +8161,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>244</v>
       </c>
@@ -8129,7 +8174,7 @@
       <c r="D239" t="s">
         <v>528</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="3" t="s">
         <v>781</v>
       </c>
       <c r="F239" t="s">
@@ -8139,7 +8184,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>245</v>
       </c>
@@ -8152,7 +8197,7 @@
       <c r="D240" t="s">
         <v>529</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="3" t="s">
         <v>782</v>
       </c>
       <c r="F240" t="s">
@@ -8162,7 +8207,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>246</v>
       </c>
@@ -8175,7 +8220,7 @@
       <c r="D241" t="s">
         <v>530</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="3" t="s">
         <v>783</v>
       </c>
       <c r="F241" t="s">
@@ -8185,7 +8230,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>247</v>
       </c>
@@ -8198,7 +8243,7 @@
       <c r="D242" t="s">
         <v>531</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" s="3" t="s">
         <v>784</v>
       </c>
       <c r="F242" t="s">
@@ -8208,7 +8253,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>248</v>
       </c>
@@ -8221,7 +8266,7 @@
       <c r="D243" t="s">
         <v>532</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="3" t="s">
         <v>785</v>
       </c>
       <c r="F243" t="s">
@@ -8231,7 +8276,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>249</v>
       </c>
@@ -8244,7 +8289,7 @@
       <c r="D244" t="s">
         <v>533</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="3" t="s">
         <v>786</v>
       </c>
       <c r="F244" t="s">
@@ -8254,7 +8299,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>250</v>
       </c>
@@ -8267,7 +8312,7 @@
       <c r="D245" t="s">
         <v>534</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="3" t="s">
         <v>787</v>
       </c>
       <c r="F245" t="s">
@@ -8277,7 +8322,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>251</v>
       </c>
@@ -8290,7 +8335,7 @@
       <c r="D246" t="s">
         <v>535</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="3" t="s">
         <v>788</v>
       </c>
       <c r="F246" t="s">
@@ -8300,7 +8345,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>252</v>
       </c>
@@ -8313,7 +8358,7 @@
       <c r="D247" t="s">
         <v>536</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="3" t="s">
         <v>789</v>
       </c>
       <c r="F247" t="s">
@@ -8323,7 +8368,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>253</v>
       </c>
@@ -8336,7 +8381,7 @@
       <c r="D248" t="s">
         <v>537</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="3" t="s">
         <v>790</v>
       </c>
       <c r="F248" t="s">
@@ -8346,7 +8391,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>254</v>
       </c>
@@ -8359,7 +8404,7 @@
       <c r="D249" t="s">
         <v>538</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="3" t="s">
         <v>791</v>
       </c>
       <c r="F249" t="s">
@@ -8369,7 +8414,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>255</v>
       </c>
@@ -8382,7 +8427,7 @@
       <c r="D250" t="s">
         <v>539</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="3" t="s">
         <v>792</v>
       </c>
       <c r="F250" t="s">
@@ -8392,7 +8437,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>256</v>
       </c>
@@ -8405,7 +8450,7 @@
       <c r="D251" t="s">
         <v>540</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E251" s="3" t="s">
         <v>793</v>
       </c>
       <c r="F251" t="s">
@@ -8415,7 +8460,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>257</v>
       </c>
@@ -8428,7 +8473,7 @@
       <c r="D252" t="s">
         <v>541</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="3" t="s">
         <v>794</v>
       </c>
       <c r="F252" t="s">
@@ -8438,7 +8483,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>258</v>
       </c>
@@ -8451,7 +8496,7 @@
       <c r="D253" t="s">
         <v>542</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="3" t="s">
         <v>795</v>
       </c>
       <c r="F253" t="s">
@@ -8461,7 +8506,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>259</v>
       </c>
@@ -8474,7 +8519,7 @@
       <c r="D254" t="s">
         <v>543</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="3" t="s">
         <v>796</v>
       </c>
       <c r="F254" t="s">
@@ -8484,7 +8529,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>260</v>
       </c>
@@ -8497,7 +8542,7 @@
       <c r="D255" t="s">
         <v>544</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E255" s="3" t="s">
         <v>797</v>
       </c>
       <c r="F255" t="s">
@@ -8507,7 +8552,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>261</v>
       </c>
@@ -8520,7 +8565,7 @@
       <c r="D256" t="s">
         <v>545</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" s="3" t="s">
         <v>798</v>
       </c>
       <c r="F256" t="s">
@@ -8530,7 +8575,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>262</v>
       </c>
@@ -8543,7 +8588,7 @@
       <c r="D257" t="s">
         <v>546</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E257" s="3" t="s">
         <v>799</v>
       </c>
       <c r="F257" t="s">
@@ -8553,7 +8598,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>263</v>
       </c>
@@ -8566,7 +8611,7 @@
       <c r="D258" t="s">
         <v>485</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E258" s="3" t="s">
         <v>800</v>
       </c>
       <c r="F258" t="s">
@@ -8576,7 +8621,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>264</v>
       </c>
@@ -8589,7 +8634,7 @@
       <c r="D259" t="s">
         <v>489</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E259" s="3" t="s">
         <v>801</v>
       </c>
       <c r="F259" t="s">
@@ -8599,7 +8644,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>265</v>
       </c>
@@ -8612,7 +8657,7 @@
       <c r="D260" t="s">
         <v>484</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E260" s="3" t="s">
         <v>802</v>
       </c>
       <c r="F260" t="s">
@@ -8622,7 +8667,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>266</v>
       </c>
@@ -8635,7 +8680,7 @@
       <c r="D261" t="s">
         <v>488</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E261" s="3" t="s">
         <v>803</v>
       </c>
       <c r="F261" t="s">
@@ -8645,7 +8690,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>267</v>
       </c>
@@ -8658,7 +8703,7 @@
       <c r="D262" t="s">
         <v>487</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" s="3" t="s">
         <v>804</v>
       </c>
       <c r="F262" t="s">
@@ -8668,7 +8713,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>268</v>
       </c>
@@ -8681,7 +8726,7 @@
       <c r="D263" t="s">
         <v>486</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E263" s="3" t="s">
         <v>805</v>
       </c>
       <c r="F263" t="s">
@@ -8691,7 +8736,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>269</v>
       </c>
@@ -8704,7 +8749,7 @@
       <c r="D264" t="s">
         <v>547</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="3" t="s">
         <v>806</v>
       </c>
       <c r="F264" t="s">
@@ -8714,7 +8759,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>270</v>
       </c>
@@ -8727,7 +8772,7 @@
       <c r="D265" t="s">
         <v>548</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E265" s="3" t="s">
         <v>807</v>
       </c>
       <c r="F265" t="s">
@@ -8737,7 +8782,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>271</v>
       </c>
@@ -8750,7 +8795,7 @@
       <c r="D266" t="s">
         <v>549</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="3" t="s">
         <v>808</v>
       </c>
       <c r="F266" t="s">
@@ -8760,7 +8805,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>272</v>
       </c>
@@ -8773,7 +8818,7 @@
       <c r="D267" t="s">
         <v>550</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="3" t="s">
         <v>809</v>
       </c>
       <c r="F267" t="s">
@@ -8783,7 +8828,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>273</v>
       </c>
@@ -8796,7 +8841,7 @@
       <c r="D268" t="s">
         <v>551</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E268" s="3" t="s">
         <v>810</v>
       </c>
       <c r="F268" t="s">
@@ -8806,7 +8851,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>274</v>
       </c>
@@ -8819,7 +8864,7 @@
       <c r="D269" t="s">
         <v>552</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E269" s="3" t="s">
         <v>811</v>
       </c>
       <c r="F269" t="s">
@@ -8829,7 +8874,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>275</v>
       </c>
@@ -8842,7 +8887,7 @@
       <c r="D270" t="s">
         <v>553</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E270" s="3" t="s">
         <v>812</v>
       </c>
       <c r="F270" t="s">
@@ -8852,7 +8897,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>276</v>
       </c>
@@ -8865,7 +8910,7 @@
       <c r="D271" t="s">
         <v>554</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E271" s="3" t="s">
         <v>813</v>
       </c>
       <c r="F271" t="s">
@@ -8875,7 +8920,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>277</v>
       </c>
@@ -8888,7 +8933,7 @@
       <c r="D272" t="s">
         <v>555</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E272" s="3" t="s">
         <v>814</v>
       </c>
       <c r="F272" t="s">
@@ -8898,7 +8943,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>278</v>
       </c>
@@ -8911,7 +8956,7 @@
       <c r="D273" t="s">
         <v>556</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E273" s="3" t="s">
         <v>815</v>
       </c>
       <c r="F273" t="s">
@@ -8921,7 +8966,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>279</v>
       </c>
@@ -8934,7 +8979,7 @@
       <c r="D274" t="s">
         <v>482</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E274" s="3" t="s">
         <v>816</v>
       </c>
       <c r="F274" t="s">
@@ -8944,7 +8989,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>280</v>
       </c>
@@ -8957,7 +9002,7 @@
       <c r="D275" t="s">
         <v>557</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E275" s="3" t="s">
         <v>817</v>
       </c>
       <c r="F275" t="s">
@@ -8967,7 +9012,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>281</v>
       </c>
@@ -8980,7 +9025,7 @@
       <c r="D276" t="s">
         <v>558</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E276" s="3" t="s">
         <v>818</v>
       </c>
       <c r="F276" t="s">
@@ -8990,7 +9035,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>282</v>
       </c>
@@ -9003,7 +9048,7 @@
       <c r="D277" t="s">
         <v>485</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E277" s="3" t="s">
         <v>819</v>
       </c>
       <c r="F277" t="s">
@@ -9013,7 +9058,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>283</v>
       </c>
@@ -9026,7 +9071,7 @@
       <c r="D278" t="s">
         <v>489</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E278" s="3" t="s">
         <v>819</v>
       </c>
       <c r="F278" t="s">
@@ -9036,7 +9081,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>284</v>
       </c>
@@ -9049,7 +9094,7 @@
       <c r="D279" t="s">
         <v>488</v>
       </c>
-      <c r="E279" t="s">
+      <c r="E279" s="3" t="s">
         <v>819</v>
       </c>
       <c r="F279" t="s">
@@ -9059,7 +9104,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>285</v>
       </c>
@@ -9072,7 +9117,7 @@
       <c r="D280" t="s">
         <v>487</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E280" s="3" t="s">
         <v>819</v>
       </c>
       <c r="F280" t="s">
@@ -9082,7 +9127,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>286</v>
       </c>
@@ -9095,7 +9140,7 @@
       <c r="D281" t="s">
         <v>486</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E281" s="3" t="s">
         <v>819</v>
       </c>
       <c r="F281" t="s">
@@ -9105,7 +9150,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>287</v>
       </c>
@@ -9118,7 +9163,7 @@
       <c r="D282" t="s">
         <v>487</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E282" s="3" t="s">
         <v>820</v>
       </c>
       <c r="F282" t="s">
@@ -9128,7 +9173,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>288</v>
       </c>
@@ -9141,7 +9186,7 @@
       <c r="D283" t="s">
         <v>488</v>
       </c>
-      <c r="E283" t="s">
+      <c r="E283" s="3" t="s">
         <v>821</v>
       </c>
       <c r="F283" t="s">
@@ -9151,7 +9196,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>289</v>
       </c>
@@ -9164,7 +9209,7 @@
       <c r="D284" t="s">
         <v>485</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E284" s="3" t="s">
         <v>822</v>
       </c>
       <c r="F284" t="s">
@@ -9174,7 +9219,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>290</v>
       </c>
@@ -9187,7 +9232,7 @@
       <c r="D285" t="s">
         <v>489</v>
       </c>
-      <c r="E285" t="s">
+      <c r="E285" s="3" t="s">
         <v>823</v>
       </c>
       <c r="F285" t="s">
@@ -9197,7 +9242,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>291</v>
       </c>
@@ -9210,7 +9255,7 @@
       <c r="D286" t="s">
         <v>486</v>
       </c>
-      <c r="E286" t="s">
+      <c r="E286" s="3" t="s">
         <v>824</v>
       </c>
       <c r="F286" t="s">
@@ -9220,14 +9265,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>292</v>
       </c>
       <c r="C287" t="b">
         <v>0</v>
       </c>
-      <c r="E287" t="s">
+      <c r="E287" s="3" t="s">
         <v>825</v>
       </c>
       <c r="F287" t="s">
@@ -9237,14 +9282,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>293</v>
       </c>
       <c r="C288" t="b">
         <v>0</v>
       </c>
-      <c r="E288" t="s">
+      <c r="E288" s="3" t="s">
         <v>826</v>
       </c>
       <c r="F288" t="s">
@@ -9254,14 +9299,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>294</v>
       </c>
       <c r="C289" t="b">
         <v>0</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E289" s="3" t="s">
         <v>827</v>
       </c>
       <c r="F289" t="s">
@@ -9271,14 +9316,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>295</v>
       </c>
       <c r="C290" t="b">
         <v>0</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E290" s="3" t="s">
         <v>828</v>
       </c>
       <c r="F290" t="s">
@@ -9288,14 +9333,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>296</v>
       </c>
       <c r="C291" t="b">
         <v>0</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E291" s="3" t="s">
         <v>829</v>
       </c>
       <c r="F291" t="s">
@@ -9305,14 +9350,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>297</v>
       </c>
       <c r="C292" t="b">
         <v>0</v>
       </c>
-      <c r="E292" t="s">
+      <c r="E292" s="3" t="s">
         <v>830</v>
       </c>
       <c r="F292" t="s">
@@ -9322,14 +9367,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>298</v>
       </c>
       <c r="C293" t="b">
         <v>0</v>
       </c>
-      <c r="E293" t="s">
+      <c r="E293" s="3" t="s">
         <v>831</v>
       </c>
       <c r="F293" t="s">
@@ -9339,14 +9384,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>299</v>
       </c>
       <c r="C294" t="b">
         <v>0</v>
       </c>
-      <c r="E294" t="s">
+      <c r="E294" s="3" t="s">
         <v>832</v>
       </c>
       <c r="F294" t="s">
@@ -9356,14 +9401,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>300</v>
       </c>
       <c r="C295" t="b">
         <v>0</v>
       </c>
-      <c r="E295" t="s">
+      <c r="E295" s="3" t="s">
         <v>833</v>
       </c>
       <c r="F295" t="s">
@@ -9373,14 +9418,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>301</v>
       </c>
       <c r="C296" t="b">
         <v>0</v>
       </c>
-      <c r="E296" t="s">
+      <c r="E296" s="3" t="s">
         <v>834</v>
       </c>
       <c r="F296" t="s">
@@ -9390,14 +9435,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>302</v>
       </c>
       <c r="C297" t="b">
         <v>0</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E297" s="3" t="s">
         <v>727</v>
       </c>
       <c r="F297" t="s">
@@ -9407,14 +9452,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>303</v>
       </c>
       <c r="C298" t="b">
         <v>0</v>
       </c>
-      <c r="E298" t="s">
+      <c r="E298" s="3" t="s">
         <v>835</v>
       </c>
       <c r="F298" t="s">
@@ -9424,14 +9469,14 @@
         <v>945</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>304</v>
       </c>
       <c r="C299" t="b">
         <v>0</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E299" s="3" t="s">
         <v>836</v>
       </c>
       <c r="F299" t="s">
@@ -9441,7 +9486,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>305</v>
       </c>
@@ -9454,7 +9499,7 @@
       <c r="D300" t="s">
         <v>490</v>
       </c>
-      <c r="E300" t="s">
+      <c r="E300" s="3" t="s">
         <v>837</v>
       </c>
       <c r="F300" t="s">
@@ -9464,7 +9509,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>306</v>
       </c>
@@ -9477,7 +9522,7 @@
       <c r="D301" t="s">
         <v>493</v>
       </c>
-      <c r="E301" t="s">
+      <c r="E301" s="3" t="s">
         <v>838</v>
       </c>
       <c r="F301" t="s">
@@ -9487,7 +9532,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>307</v>
       </c>
@@ -9500,7 +9545,7 @@
       <c r="D302" t="s">
         <v>491</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E302" s="3" t="s">
         <v>839</v>
       </c>
       <c r="F302" t="s">
@@ -9510,7 +9555,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>308</v>
       </c>
@@ -9523,7 +9568,7 @@
       <c r="D303" t="s">
         <v>506</v>
       </c>
-      <c r="E303" t="s">
+      <c r="E303" s="3" t="s">
         <v>840</v>
       </c>
       <c r="F303" t="s">
@@ -9533,7 +9578,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>309</v>
       </c>
@@ -9546,7 +9591,7 @@
       <c r="D304" t="s">
         <v>507</v>
       </c>
-      <c r="E304" t="s">
+      <c r="E304" s="3" t="s">
         <v>841</v>
       </c>
       <c r="F304" t="s">
@@ -9556,7 +9601,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>310</v>
       </c>
@@ -9569,7 +9614,7 @@
       <c r="D305" t="s">
         <v>492</v>
       </c>
-      <c r="E305" t="s">
+      <c r="E305" s="3" t="s">
         <v>842</v>
       </c>
       <c r="F305" t="s">
@@ -9579,7 +9624,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>311</v>
       </c>
@@ -9592,7 +9637,7 @@
       <c r="D306" t="s">
         <v>483</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E306" s="3" t="s">
         <v>843</v>
       </c>
       <c r="F306" t="s">
@@ -9602,7 +9647,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>312</v>
       </c>
@@ -9615,7 +9660,7 @@
       <c r="D307" t="s">
         <v>508</v>
       </c>
-      <c r="E307" t="s">
+      <c r="E307" s="3" t="s">
         <v>844</v>
       </c>
       <c r="F307" t="s">
@@ -9625,7 +9670,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>313</v>
       </c>
@@ -9638,7 +9683,7 @@
       <c r="D308" t="s">
         <v>509</v>
       </c>
-      <c r="E308" t="s">
+      <c r="E308" s="3" t="s">
         <v>845</v>
       </c>
       <c r="F308" t="s">
@@ -9648,7 +9693,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>314</v>
       </c>
@@ -9661,7 +9706,7 @@
       <c r="D309" t="s">
         <v>510</v>
       </c>
-      <c r="E309" t="s">
+      <c r="E309" s="3" t="s">
         <v>846</v>
       </c>
       <c r="F309" t="s">
@@ -9671,7 +9716,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>315</v>
       </c>
@@ -9684,7 +9729,7 @@
       <c r="D310" t="s">
         <v>511</v>
       </c>
-      <c r="E310" t="s">
+      <c r="E310" s="3" t="s">
         <v>847</v>
       </c>
       <c r="F310" t="s">
@@ -9694,7 +9739,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>316</v>
       </c>
@@ -9707,7 +9752,7 @@
       <c r="D311" t="s">
         <v>512</v>
       </c>
-      <c r="E311" t="s">
+      <c r="E311" s="3" t="s">
         <v>848</v>
       </c>
       <c r="F311" t="s">
@@ -9717,7 +9762,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>317</v>
       </c>
@@ -9730,7 +9775,7 @@
       <c r="D312" t="s">
         <v>513</v>
       </c>
-      <c r="E312" t="s">
+      <c r="E312" s="3" t="s">
         <v>849</v>
       </c>
       <c r="F312" t="s">
@@ -9740,7 +9785,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>318</v>
       </c>
@@ -9753,7 +9798,7 @@
       <c r="D313" t="s">
         <v>514</v>
       </c>
-      <c r="E313" t="s">
+      <c r="E313" s="3" t="s">
         <v>850</v>
       </c>
       <c r="F313" t="s">
@@ -9763,7 +9808,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>319</v>
       </c>
@@ -9776,7 +9821,7 @@
       <c r="D314" t="s">
         <v>515</v>
       </c>
-      <c r="E314" t="s">
+      <c r="E314" s="3" t="s">
         <v>840</v>
       </c>
       <c r="F314" t="s">
@@ -9786,7 +9831,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>320</v>
       </c>
@@ -9799,7 +9844,7 @@
       <c r="D315" t="s">
         <v>495</v>
       </c>
-      <c r="E315" t="s">
+      <c r="E315" s="3" t="s">
         <v>851</v>
       </c>
       <c r="F315" t="s">
@@ -9809,7 +9854,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>321</v>
       </c>
@@ -9822,7 +9867,7 @@
       <c r="D316" t="s">
         <v>516</v>
       </c>
-      <c r="E316" t="s">
+      <c r="E316" s="3" t="s">
         <v>852</v>
       </c>
       <c r="F316" t="s">
@@ -9832,7 +9877,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>322</v>
       </c>
@@ -9845,7 +9890,7 @@
       <c r="D317" t="s">
         <v>517</v>
       </c>
-      <c r="E317" t="s">
+      <c r="E317" s="3" t="s">
         <v>853</v>
       </c>
       <c r="F317" t="s">
@@ -9855,7 +9900,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>323</v>
       </c>
@@ -9868,7 +9913,7 @@
       <c r="D318" t="s">
         <v>518</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E318" s="3" t="s">
         <v>854</v>
       </c>
       <c r="F318" t="s">
@@ -9878,7 +9923,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>324</v>
       </c>
@@ -9891,7 +9936,7 @@
       <c r="D319" t="s">
         <v>519</v>
       </c>
-      <c r="E319" t="s">
+      <c r="E319" s="3" t="s">
         <v>855</v>
       </c>
       <c r="F319" t="s">
@@ -9901,7 +9946,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>325</v>
       </c>
@@ -9914,7 +9959,7 @@
       <c r="D320" t="s">
         <v>499</v>
       </c>
-      <c r="E320" t="s">
+      <c r="E320" s="3" t="s">
         <v>856</v>
       </c>
       <c r="F320" t="s">
@@ -9924,7 +9969,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>326</v>
       </c>
@@ -9937,7 +9982,7 @@
       <c r="D321" t="s">
         <v>500</v>
       </c>
-      <c r="E321" t="s">
+      <c r="E321" s="3" t="s">
         <v>857</v>
       </c>
       <c r="F321" t="s">
@@ -9947,7 +9992,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>327</v>
       </c>
@@ -9960,7 +10005,7 @@
       <c r="D322" t="s">
         <v>501</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E322" s="3" t="s">
         <v>858</v>
       </c>
       <c r="F322" t="s">
@@ -9970,7 +10015,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>328</v>
       </c>
@@ -9983,7 +10028,7 @@
       <c r="D323" t="s">
         <v>502</v>
       </c>
-      <c r="E323" t="s">
+      <c r="E323" s="3" t="s">
         <v>859</v>
       </c>
       <c r="F323" t="s">
@@ -9993,7 +10038,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>329</v>
       </c>
@@ -10006,7 +10051,7 @@
       <c r="D324" t="s">
         <v>503</v>
       </c>
-      <c r="E324" t="s">
+      <c r="E324" s="3" t="s">
         <v>860</v>
       </c>
       <c r="F324" t="s">
@@ -10016,7 +10061,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>330</v>
       </c>
@@ -10029,7 +10074,7 @@
       <c r="D325" t="s">
         <v>504</v>
       </c>
-      <c r="E325" t="s">
+      <c r="E325" s="3" t="s">
         <v>861</v>
       </c>
       <c r="F325" t="s">
@@ -10039,7 +10084,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>331</v>
       </c>
@@ -10052,7 +10097,7 @@
       <c r="D326" t="s">
         <v>505</v>
       </c>
-      <c r="E326" t="s">
+      <c r="E326" s="3" t="s">
         <v>862</v>
       </c>
       <c r="F326" t="s">
@@ -10062,7 +10107,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>332</v>
       </c>
@@ -10075,7 +10120,7 @@
       <c r="D327" t="s">
         <v>520</v>
       </c>
-      <c r="E327" t="s">
+      <c r="E327" s="3" t="s">
         <v>863</v>
       </c>
       <c r="F327" t="s">
@@ -10085,7 +10130,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>333</v>
       </c>
@@ -10098,7 +10143,7 @@
       <c r="D328" t="s">
         <v>521</v>
       </c>
-      <c r="E328" t="s">
+      <c r="E328" s="3" t="s">
         <v>864</v>
       </c>
       <c r="F328" t="s">
@@ -10108,7 +10153,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>334</v>
       </c>
@@ -10121,7 +10166,7 @@
       <c r="D329" t="s">
         <v>522</v>
       </c>
-      <c r="E329" t="s">
+      <c r="E329" s="3" t="s">
         <v>865</v>
       </c>
       <c r="F329" t="s">
@@ -10131,7 +10176,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>335</v>
       </c>
@@ -10144,7 +10189,7 @@
       <c r="D330" t="s">
         <v>523</v>
       </c>
-      <c r="E330" t="s">
+      <c r="E330" s="3" t="s">
         <v>866</v>
       </c>
       <c r="F330" t="s">
@@ -10154,7 +10199,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>336</v>
       </c>
@@ -10167,7 +10212,7 @@
       <c r="D331" t="s">
         <v>524</v>
       </c>
-      <c r="E331" t="s">
+      <c r="E331" s="3" t="s">
         <v>867</v>
       </c>
       <c r="F331" t="s">
@@ -10177,7 +10222,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>337</v>
       </c>
@@ -10190,7 +10235,7 @@
       <c r="D332" t="s">
         <v>525</v>
       </c>
-      <c r="E332" t="s">
+      <c r="E332" s="3" t="s">
         <v>868</v>
       </c>
       <c r="F332" t="s">
@@ -10200,7 +10245,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>338</v>
       </c>
@@ -10213,7 +10258,7 @@
       <c r="D333" t="s">
         <v>526</v>
       </c>
-      <c r="E333" t="s">
+      <c r="E333" s="3" t="s">
         <v>869</v>
       </c>
       <c r="F333" t="s">
@@ -10223,7 +10268,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>339</v>
       </c>
@@ -10236,7 +10281,7 @@
       <c r="D334" t="s">
         <v>527</v>
       </c>
-      <c r="E334" t="s">
+      <c r="E334" s="3" t="s">
         <v>870</v>
       </c>
       <c r="F334" t="s">
@@ -10246,7 +10291,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>340</v>
       </c>
@@ -10259,7 +10304,7 @@
       <c r="D335" t="s">
         <v>528</v>
       </c>
-      <c r="E335" t="s">
+      <c r="E335" s="3" t="s">
         <v>871</v>
       </c>
       <c r="F335" t="s">
@@ -10269,7 +10314,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>341</v>
       </c>
@@ -10282,7 +10327,7 @@
       <c r="D336" t="s">
         <v>529</v>
       </c>
-      <c r="E336" t="s">
+      <c r="E336" s="3" t="s">
         <v>872</v>
       </c>
       <c r="F336" t="s">
@@ -10292,7 +10337,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>342</v>
       </c>
@@ -10305,7 +10350,7 @@
       <c r="D337" t="s">
         <v>530</v>
       </c>
-      <c r="E337" t="s">
+      <c r="E337" s="3" t="s">
         <v>873</v>
       </c>
       <c r="F337" t="s">
@@ -10315,7 +10360,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>343</v>
       </c>
@@ -10328,7 +10373,7 @@
       <c r="D338" t="s">
         <v>531</v>
       </c>
-      <c r="E338" t="s">
+      <c r="E338" s="3" t="s">
         <v>874</v>
       </c>
       <c r="F338" t="s">
@@ -10338,7 +10383,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>344</v>
       </c>
@@ -10351,7 +10396,7 @@
       <c r="D339" t="s">
         <v>532</v>
       </c>
-      <c r="E339" t="s">
+      <c r="E339" s="3" t="s">
         <v>875</v>
       </c>
       <c r="F339" t="s">
@@ -10361,7 +10406,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>345</v>
       </c>
@@ -10374,7 +10419,7 @@
       <c r="D340" t="s">
         <v>538</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E340" s="3" t="s">
         <v>876</v>
       </c>
       <c r="F340" t="s">
@@ -10384,7 +10429,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>346</v>
       </c>
@@ -10397,7 +10442,7 @@
       <c r="D341" t="s">
         <v>538</v>
       </c>
-      <c r="E341" t="s">
+      <c r="E341" s="3" t="s">
         <v>877</v>
       </c>
       <c r="F341" t="s">
@@ -10407,7 +10452,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>347</v>
       </c>
@@ -10420,7 +10465,7 @@
       <c r="D342" t="s">
         <v>538</v>
       </c>
-      <c r="E342" t="s">
+      <c r="E342" s="3" t="s">
         <v>878</v>
       </c>
       <c r="F342" t="s">
@@ -10430,7 +10475,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>348</v>
       </c>
@@ -10443,7 +10488,7 @@
       <c r="D343" t="s">
         <v>539</v>
       </c>
-      <c r="E343" t="s">
+      <c r="E343" s="3" t="s">
         <v>879</v>
       </c>
       <c r="F343" t="s">
@@ -10453,7 +10498,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>349</v>
       </c>
@@ -10466,7 +10511,7 @@
       <c r="D344" t="s">
         <v>545</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E344" s="3" t="s">
         <v>880</v>
       </c>
       <c r="F344" t="s">
@@ -10476,7 +10521,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>350</v>
       </c>
@@ -10489,7 +10534,7 @@
       <c r="D345" t="s">
         <v>545</v>
       </c>
-      <c r="E345" t="s">
+      <c r="E345" s="3" t="s">
         <v>881</v>
       </c>
       <c r="F345" t="s">
@@ -10499,7 +10544,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>351</v>
       </c>
@@ -10512,7 +10557,7 @@
       <c r="D346" t="s">
         <v>545</v>
       </c>
-      <c r="E346" t="s">
+      <c r="E346" s="3" t="s">
         <v>882</v>
       </c>
       <c r="F346" t="s">
@@ -10522,7 +10567,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>352</v>
       </c>
@@ -10535,7 +10580,7 @@
       <c r="D347" t="s">
         <v>546</v>
       </c>
-      <c r="E347" t="s">
+      <c r="E347" s="3" t="s">
         <v>883</v>
       </c>
       <c r="F347" t="s">
@@ -10545,7 +10590,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>353</v>
       </c>
@@ -10558,7 +10603,7 @@
       <c r="D348" t="s">
         <v>485</v>
       </c>
-      <c r="E348" t="s">
+      <c r="E348" s="3" t="s">
         <v>884</v>
       </c>
       <c r="F348" t="s">
@@ -10568,7 +10613,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>354</v>
       </c>
@@ -10581,7 +10626,7 @@
       <c r="D349" t="s">
         <v>489</v>
       </c>
-      <c r="E349" t="s">
+      <c r="E349" s="3" t="s">
         <v>885</v>
       </c>
       <c r="F349" t="s">
@@ -10591,7 +10636,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>355</v>
       </c>
@@ -10604,7 +10649,7 @@
       <c r="D350" t="s">
         <v>484</v>
       </c>
-      <c r="E350" t="s">
+      <c r="E350" s="3" t="s">
         <v>886</v>
       </c>
       <c r="F350" t="s">
@@ -10614,7 +10659,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>356</v>
       </c>
@@ -10627,7 +10672,7 @@
       <c r="D351" t="s">
         <v>488</v>
       </c>
-      <c r="E351" t="s">
+      <c r="E351" s="3" t="s">
         <v>887</v>
       </c>
       <c r="F351" t="s">
@@ -10637,7 +10682,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>357</v>
       </c>
@@ -10650,7 +10695,7 @@
       <c r="D352" t="s">
         <v>487</v>
       </c>
-      <c r="E352" t="s">
+      <c r="E352" s="3" t="s">
         <v>888</v>
       </c>
       <c r="F352" t="s">
@@ -10660,7 +10705,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>358</v>
       </c>
@@ -10673,7 +10718,7 @@
       <c r="D353" t="s">
         <v>486</v>
       </c>
-      <c r="E353" t="s">
+      <c r="E353" s="3" t="s">
         <v>889</v>
       </c>
       <c r="F353" t="s">
@@ -10683,7 +10728,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>359</v>
       </c>
@@ -10696,7 +10741,7 @@
       <c r="D354" t="s">
         <v>547</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E354" s="3" t="s">
         <v>890</v>
       </c>
       <c r="F354" t="s">
@@ -10706,7 +10751,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>360</v>
       </c>
@@ -10719,7 +10764,7 @@
       <c r="D355" t="s">
         <v>548</v>
       </c>
-      <c r="E355" t="s">
+      <c r="E355" s="3" t="s">
         <v>891</v>
       </c>
       <c r="F355" t="s">
@@ -10729,7 +10774,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>361</v>
       </c>
@@ -10742,7 +10787,7 @@
       <c r="D356" t="s">
         <v>549</v>
       </c>
-      <c r="E356" t="s">
+      <c r="E356" s="3" t="s">
         <v>892</v>
       </c>
       <c r="F356" t="s">
@@ -10752,7 +10797,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>362</v>
       </c>
@@ -10765,7 +10810,7 @@
       <c r="D357" t="s">
         <v>550</v>
       </c>
-      <c r="E357" t="s">
+      <c r="E357" s="3" t="s">
         <v>893</v>
       </c>
       <c r="F357" t="s">
@@ -10775,7 +10820,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>363</v>
       </c>
@@ -10788,7 +10833,7 @@
       <c r="D358" t="s">
         <v>551</v>
       </c>
-      <c r="E358" t="s">
+      <c r="E358" s="3" t="s">
         <v>894</v>
       </c>
       <c r="F358" t="s">
@@ -10798,7 +10843,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>364</v>
       </c>
@@ -10811,7 +10856,7 @@
       <c r="D359" t="s">
         <v>552</v>
       </c>
-      <c r="E359" t="s">
+      <c r="E359" s="3" t="s">
         <v>895</v>
       </c>
       <c r="F359" t="s">
@@ -10821,7 +10866,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>365</v>
       </c>
@@ -10834,7 +10879,7 @@
       <c r="D360" t="s">
         <v>553</v>
       </c>
-      <c r="E360" t="s">
+      <c r="E360" s="3" t="s">
         <v>896</v>
       </c>
       <c r="F360" t="s">
@@ -10844,7 +10889,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>366</v>
       </c>
@@ -10864,7 +10909,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>367</v>
       </c>
@@ -10877,7 +10922,7 @@
       <c r="D362" t="s">
         <v>555</v>
       </c>
-      <c r="E362" t="s">
+      <c r="E362" s="3" t="s">
         <v>897</v>
       </c>
       <c r="F362" t="s">
@@ -10887,7 +10932,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>368</v>
       </c>
@@ -10900,7 +10945,7 @@
       <c r="D363" t="s">
         <v>494</v>
       </c>
-      <c r="E363" t="s">
+      <c r="E363" s="3" t="s">
         <v>898</v>
       </c>
       <c r="F363" t="s">
@@ -10910,7 +10955,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>369</v>
       </c>
@@ -10930,7 +10975,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>370</v>
       </c>
@@ -10950,7 +10995,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>371</v>
       </c>
@@ -10970,7 +11015,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>372</v>
       </c>
@@ -10983,7 +11028,7 @@
       <c r="D367" t="s">
         <v>482</v>
       </c>
-      <c r="E367" t="s">
+      <c r="E367" s="3" t="s">
         <v>899</v>
       </c>
       <c r="F367" t="s">
@@ -10993,7 +11038,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>477</v>
       </c>
@@ -11010,7 +11055,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>478</v>
       </c>
@@ -11027,7 +11072,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>373</v>
       </c>
@@ -11040,7 +11085,7 @@
       <c r="D370" t="s">
         <v>483</v>
       </c>
-      <c r="E370" t="s">
+      <c r="E370" s="3" t="s">
         <v>900</v>
       </c>
       <c r="F370" t="s">
@@ -11050,7 +11095,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>374</v>
       </c>
@@ -11063,7 +11108,7 @@
       <c r="D371" t="s">
         <v>483</v>
       </c>
-      <c r="E371" t="s">
+      <c r="E371" s="3" t="s">
         <v>901</v>
       </c>
       <c r="F371" t="s">
@@ -11073,7 +11118,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>375</v>
       </c>
@@ -11086,7 +11131,7 @@
       <c r="D372" t="s">
         <v>511</v>
       </c>
-      <c r="E372" t="s">
+      <c r="E372" s="3" t="s">
         <v>902</v>
       </c>
       <c r="F372" t="s">
@@ -11096,7 +11141,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>376</v>
       </c>
@@ -11109,7 +11154,7 @@
       <c r="D373" t="s">
         <v>514</v>
       </c>
-      <c r="E373" t="s">
+      <c r="E373" s="3" t="s">
         <v>903</v>
       </c>
       <c r="F373" t="s">
@@ -11119,7 +11164,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>377</v>
       </c>
@@ -11132,7 +11177,7 @@
       <c r="D374" t="s">
         <v>520</v>
       </c>
-      <c r="E374" t="s">
+      <c r="E374" s="3" t="s">
         <v>904</v>
       </c>
       <c r="F374" t="s">
@@ -11142,7 +11187,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>378</v>
       </c>
@@ -11155,7 +11200,7 @@
       <c r="D375" t="s">
         <v>525</v>
       </c>
-      <c r="E375" t="s">
+      <c r="E375" s="3" t="s">
         <v>905</v>
       </c>
       <c r="F375" t="s">
@@ -11165,7 +11210,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>379</v>
       </c>
@@ -11178,7 +11223,7 @@
       <c r="D376" t="s">
         <v>526</v>
       </c>
-      <c r="E376" t="s">
+      <c r="E376" s="3" t="s">
         <v>906</v>
       </c>
       <c r="F376" t="s">
@@ -11188,7 +11233,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>380</v>
       </c>
@@ -11201,17 +11246,17 @@
       <c r="D377" t="s">
         <v>527</v>
       </c>
-      <c r="E377" t="s">
+      <c r="E377" s="3" t="s">
         <v>907</v>
       </c>
       <c r="F377" t="s">
         <v>944</v>
       </c>
       <c r="G377" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>381</v>
       </c>
@@ -11224,17 +11269,17 @@
       <c r="D378" t="s">
         <v>530</v>
       </c>
-      <c r="E378" t="s">
+      <c r="E378" s="3" t="s">
         <v>908</v>
       </c>
       <c r="F378" t="s">
         <v>944</v>
       </c>
       <c r="G378" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>382</v>
       </c>
@@ -11247,17 +11292,17 @@
       <c r="D379" t="s">
         <v>485</v>
       </c>
-      <c r="E379" t="s">
+      <c r="E379" s="3" t="s">
         <v>909</v>
       </c>
       <c r="F379" t="s">
         <v>944</v>
       </c>
       <c r="G379" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>383</v>
       </c>
@@ -11270,17 +11315,17 @@
       <c r="D380" t="s">
         <v>488</v>
       </c>
-      <c r="E380" t="s">
+      <c r="E380" s="3" t="s">
         <v>909</v>
       </c>
       <c r="F380" t="s">
         <v>944</v>
       </c>
       <c r="G380" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>384</v>
       </c>
@@ -11293,17 +11338,17 @@
       <c r="D381" t="s">
         <v>487</v>
       </c>
-      <c r="E381" t="s">
+      <c r="E381" s="3" t="s">
         <v>909</v>
       </c>
       <c r="F381" t="s">
         <v>944</v>
       </c>
       <c r="G381" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>385</v>
       </c>
@@ -11316,17 +11361,17 @@
       <c r="D382" t="s">
         <v>486</v>
       </c>
-      <c r="E382" t="s">
+      <c r="E382" s="3" t="s">
         <v>910</v>
       </c>
       <c r="F382" t="s">
         <v>944</v>
       </c>
       <c r="G382" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>386</v>
       </c>
@@ -11339,17 +11384,17 @@
       <c r="D383" t="s">
         <v>486</v>
       </c>
-      <c r="E383" t="s">
+      <c r="E383" s="3" t="s">
         <v>911</v>
       </c>
       <c r="F383" t="s">
         <v>944</v>
       </c>
       <c r="G383" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>387</v>
       </c>
@@ -11362,17 +11407,17 @@
       <c r="D384" t="s">
         <v>487</v>
       </c>
-      <c r="E384" t="s">
+      <c r="E384" s="3" t="s">
         <v>911</v>
       </c>
       <c r="F384" t="s">
         <v>944</v>
       </c>
       <c r="G384" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>388</v>
       </c>
@@ -11385,17 +11430,17 @@
       <c r="D385" t="s">
         <v>485</v>
       </c>
-      <c r="E385" t="s">
+      <c r="E385" s="3" t="s">
         <v>911</v>
       </c>
       <c r="F385" t="s">
         <v>944</v>
       </c>
       <c r="G385" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>389</v>
       </c>
@@ -11408,17 +11453,17 @@
       <c r="D386" t="s">
         <v>488</v>
       </c>
-      <c r="E386" t="s">
+      <c r="E386" s="3" t="s">
         <v>911</v>
       </c>
       <c r="F386" t="s">
         <v>944</v>
       </c>
       <c r="G386" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>390</v>
       </c>
@@ -11431,17 +11476,17 @@
       <c r="D387" t="s">
         <v>486</v>
       </c>
-      <c r="E387" t="s">
+      <c r="E387" s="3" t="s">
         <v>912</v>
       </c>
       <c r="F387" t="s">
         <v>944</v>
       </c>
       <c r="G387" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>391</v>
       </c>
@@ -11454,17 +11499,17 @@
       <c r="D388" t="s">
         <v>487</v>
       </c>
-      <c r="E388" t="s">
+      <c r="E388" s="3" t="s">
         <v>912</v>
       </c>
       <c r="F388" t="s">
         <v>944</v>
       </c>
       <c r="G388" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>392</v>
       </c>
@@ -11477,17 +11522,17 @@
       <c r="D389" t="s">
         <v>485</v>
       </c>
-      <c r="E389" t="s">
+      <c r="E389" s="3" t="s">
         <v>912</v>
       </c>
       <c r="F389" t="s">
         <v>944</v>
       </c>
       <c r="G389" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>393</v>
       </c>
@@ -11500,17 +11545,17 @@
       <c r="D390" t="s">
         <v>488</v>
       </c>
-      <c r="E390" t="s">
+      <c r="E390" s="3" t="s">
         <v>912</v>
       </c>
       <c r="F390" t="s">
         <v>944</v>
       </c>
       <c r="G390" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>394</v>
       </c>
@@ -11523,17 +11568,17 @@
       <c r="D391" t="s">
         <v>489</v>
       </c>
-      <c r="E391" t="s">
+      <c r="E391" s="3" t="s">
         <v>913</v>
       </c>
       <c r="F391" t="s">
         <v>944</v>
       </c>
       <c r="G391" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>395</v>
       </c>
@@ -11546,17 +11591,17 @@
       <c r="D392" t="s">
         <v>489</v>
       </c>
-      <c r="E392" t="s">
+      <c r="E392" s="3" t="s">
         <v>914</v>
       </c>
       <c r="F392" t="s">
         <v>944</v>
       </c>
       <c r="G392" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>396</v>
       </c>
@@ -11569,17 +11614,17 @@
       <c r="D393" t="s">
         <v>485</v>
       </c>
-      <c r="E393" t="s">
+      <c r="E393" s="3" t="s">
         <v>915</v>
       </c>
       <c r="F393" t="s">
         <v>944</v>
       </c>
       <c r="G393" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>397</v>
       </c>
@@ -11592,17 +11637,17 @@
       <c r="D394" t="s">
         <v>488</v>
       </c>
-      <c r="E394" t="s">
+      <c r="E394" s="3" t="s">
         <v>916</v>
       </c>
       <c r="F394" t="s">
         <v>944</v>
       </c>
       <c r="G394" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>398</v>
       </c>
@@ -11615,17 +11660,17 @@
       <c r="D395" t="s">
         <v>487</v>
       </c>
-      <c r="E395" t="s">
+      <c r="E395" s="3" t="s">
         <v>917</v>
       </c>
       <c r="F395" t="s">
         <v>944</v>
       </c>
       <c r="G395" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>399</v>
       </c>
@@ -11638,17 +11683,17 @@
       <c r="D396" t="s">
         <v>486</v>
       </c>
-      <c r="E396" t="s">
+      <c r="E396" s="3" t="s">
         <v>918</v>
       </c>
       <c r="F396" t="s">
         <v>944</v>
       </c>
       <c r="G396" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>400</v>
       </c>
@@ -11661,17 +11706,17 @@
       <c r="D397" t="s">
         <v>486</v>
       </c>
-      <c r="E397" t="s">
+      <c r="E397" s="3" t="s">
         <v>919</v>
       </c>
       <c r="F397" t="s">
         <v>944</v>
       </c>
       <c r="G397" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>401</v>
       </c>
@@ -11684,17 +11729,17 @@
       <c r="D398" t="s">
         <v>548</v>
       </c>
-      <c r="E398" t="s">
+      <c r="E398" s="3" t="s">
         <v>920</v>
       </c>
       <c r="F398" t="s">
         <v>944</v>
       </c>
       <c r="G398" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>402</v>
       </c>
@@ -11707,17 +11752,17 @@
       <c r="D399" t="s">
         <v>550</v>
       </c>
-      <c r="E399" t="s">
+      <c r="E399" s="3" t="s">
         <v>921</v>
       </c>
       <c r="F399" t="s">
         <v>944</v>
       </c>
       <c r="G399" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>403</v>
       </c>
@@ -11730,17 +11775,17 @@
       <c r="D400" t="s">
         <v>551</v>
       </c>
-      <c r="E400" t="s">
+      <c r="E400" s="3" t="s">
         <v>922</v>
       </c>
       <c r="F400" t="s">
         <v>944</v>
       </c>
       <c r="G400" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>404</v>
       </c>
@@ -11753,17 +11798,17 @@
       <c r="D401" t="s">
         <v>551</v>
       </c>
-      <c r="E401" t="s">
+      <c r="E401" s="3" t="s">
         <v>923</v>
       </c>
       <c r="F401" t="s">
         <v>944</v>
       </c>
       <c r="G401" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>405</v>
       </c>
@@ -11776,17 +11821,17 @@
       <c r="D402" t="s">
         <v>550</v>
       </c>
-      <c r="E402" t="s">
+      <c r="E402" s="3" t="s">
         <v>924</v>
       </c>
       <c r="F402" t="s">
         <v>944</v>
       </c>
       <c r="G402" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>406</v>
       </c>
@@ -11799,17 +11844,17 @@
       <c r="D403" t="s">
         <v>482</v>
       </c>
-      <c r="E403" t="s">
+      <c r="E403" s="3" t="s">
         <v>925</v>
       </c>
       <c r="F403" t="s">
         <v>944</v>
       </c>
       <c r="G403" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>407</v>
       </c>
@@ -11822,17 +11867,17 @@
       <c r="D404" t="s">
         <v>557</v>
       </c>
-      <c r="E404" t="s">
+      <c r="E404" s="3" t="s">
         <v>926</v>
       </c>
       <c r="F404" t="s">
         <v>944</v>
       </c>
       <c r="G404" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>408</v>
       </c>
@@ -11845,17 +11890,17 @@
       <c r="D405" t="s">
         <v>556</v>
       </c>
-      <c r="E405" t="s">
+      <c r="E405" s="3" t="s">
         <v>927</v>
       </c>
       <c r="F405" t="s">
         <v>944</v>
       </c>
       <c r="G405" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>409</v>
       </c>
@@ -11865,17 +11910,17 @@
       <c r="D406" t="s">
         <v>559</v>
       </c>
-      <c r="E406" t="s">
+      <c r="E406" s="3" t="s">
         <v>928</v>
       </c>
       <c r="F406" t="s">
         <v>944</v>
       </c>
       <c r="G406" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>410</v>
       </c>
@@ -11885,14 +11930,14 @@
       <c r="D407" t="s">
         <v>559</v>
       </c>
-      <c r="E407" t="s">
+      <c r="E407" s="3" t="s">
         <v>929</v>
       </c>
       <c r="F407" t="s">
         <v>944</v>
       </c>
       <c r="G407" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>

--- a/new_rules_used.xlsx
+++ b/new_rules_used.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesbmurphy/Downloads/hpms-validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD8BAF5-EB9E-7C41-B94D-83EC082FFB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41EE5BB-C781-E046-9ABD-59F47F2BC176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1049">
   <si>
     <t>Rule</t>
   </si>
@@ -3125,9 +3125,6 @@
     <t>['MAINTENANCE_OPERATIONS', 'OWNERSHIP']</t>
   </si>
   <si>
-    <t>['HPMS_SAMPLE_NO', 'SAMPLE']</t>
-  </si>
-  <si>
     <t>['FACILITY_TYPE', 'MEDIAN_WIDTH','MEDIAN_TYPE']</t>
   </si>
   <si>
@@ -3158,19 +3155,31 @@
     <t>['F_SYSTEM', 'PSR', 'PSR_VALUE_DATE', 'PSR_VALUE_TEXT','Begin_Date']</t>
   </si>
   <si>
-    <t>['F_SYSTEM', 'IRI', 'IRI_VALUE_DATE', 'IRI_VALUE_TEXT', 'NHS', 'SAMPLE_ID','Begin_Date']</t>
-  </si>
-  <si>
-    <t>['F_SYSTEM', 'NHS', 'RUTTING', 'RUTTING_VALUE_DATE', 'RUTTING_VALUE_TEXT', 'SAMPLE_ID','Begin_Date']</t>
-  </si>
-  <si>
-    <t>['FAULTING', 'FAULTING_VALUE_DATE', 'FAULTING_VALUE_TEXT', 'F_SYSTEM', 'NHS', 'SAMPLE_ID','Begin_Date']</t>
-  </si>
-  <si>
     <t>['CRACKING_PERCENT', 'CRACKING_PERCENT_VALUE_DATE', 'CRACKING_PERCENT_VALUE_TEXT', 'F_SYSTEM', 'HPMS_SAMPLE_NO', 'NHS','Begin_Date']</t>
   </si>
   <si>
     <t>['CRACKING_PERCENT', 'CRACKING_PERCENT_VALUE_DATE', 'CRACKING_PERCENT_VALUE_TEXT', 'F_SYSTEM','Begin_Date']</t>
+  </si>
+  <si>
+    <t>VaidationType</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Cross Check</t>
+  </si>
+  <si>
+    <t>['HPMS_SAMPLE_NO']</t>
+  </si>
+  <si>
+    <t>['F_SYSTEM', 'NHS', 'RUTTING', 'RUTTING_VALUE_DATE', 'RUTTING_VALUE_TEXT', 'HPMS_SAMPLE_NO','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['FAULTING', 'FAULTING_VALUE_DATE', 'FAULTING_VALUE_TEXT', 'F_SYSTEM', 'NHS', 'HPMS_SAMPLE_NO','Begin_Date']</t>
+  </si>
+  <si>
+    <t>['F_SYSTEM', 'IRI', 'IRI_VALUE_DATE', 'IRI_VALUE_TEXT', 'NHS', 'HPMS_SAMPLE_NO','Begin_Date']</t>
   </si>
 </sst>
 </file>
@@ -3544,20 +3553,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G407"/>
+  <dimension ref="A1:H408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C367" workbookViewId="0">
-      <selection activeCell="G387" sqref="G387"/>
+    <sheetView tabSelected="1" topLeftCell="E356" workbookViewId="0">
+      <selection activeCell="H386" sqref="H386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="101.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3573,14 +3583,17 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3590,14 +3603,14 @@
       <c r="E2" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>930</v>
       </c>
-      <c r="G2" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3607,14 +3620,14 @@
       <c r="E3" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>930</v>
       </c>
-      <c r="G3" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3624,14 +3637,14 @@
       <c r="E4" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>930</v>
       </c>
-      <c r="G4" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3641,14 +3654,14 @@
       <c r="E5" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>930</v>
       </c>
-      <c r="G5" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3658,14 +3671,14 @@
       <c r="E6" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>930</v>
       </c>
-      <c r="G6" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3675,14 +3688,14 @@
       <c r="E7" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>930</v>
       </c>
-      <c r="G7" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3692,14 +3705,14 @@
       <c r="E8" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>930</v>
       </c>
-      <c r="G8" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3709,14 +3722,14 @@
       <c r="E9" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>930</v>
       </c>
-      <c r="G9" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3726,14 +3739,14 @@
       <c r="E10" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>930</v>
       </c>
-      <c r="G10" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3743,14 +3756,14 @@
       <c r="E11" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>930</v>
       </c>
-      <c r="G11" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3760,14 +3773,14 @@
       <c r="E12" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>930</v>
       </c>
-      <c r="G12" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3777,14 +3790,14 @@
       <c r="E13" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>930</v>
       </c>
-      <c r="G13" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3794,14 +3807,14 @@
       <c r="E14" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>930</v>
       </c>
-      <c r="G14" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3811,14 +3824,14 @@
       <c r="E15" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>930</v>
       </c>
-      <c r="G15" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3828,14 +3841,14 @@
       <c r="E16" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>930</v>
       </c>
-      <c r="G16" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3845,14 +3858,14 @@
       <c r="E17" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>930</v>
       </c>
-      <c r="G17" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3862,14 +3875,14 @@
       <c r="E18" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>930</v>
       </c>
-      <c r="G18" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3879,14 +3892,14 @@
       <c r="E19" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>930</v>
       </c>
-      <c r="G19" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3896,14 +3909,14 @@
       <c r="E20" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>930</v>
       </c>
-      <c r="G20" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3913,14 +3926,14 @@
       <c r="E21" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>930</v>
       </c>
-      <c r="G21" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -3930,14 +3943,14 @@
       <c r="E22" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>930</v>
       </c>
-      <c r="G22" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -3947,14 +3960,14 @@
       <c r="E23" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>930</v>
       </c>
-      <c r="G23" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3964,14 +3977,14 @@
       <c r="E24" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>930</v>
       </c>
-      <c r="G24" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -3981,14 +3994,14 @@
       <c r="E25" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>930</v>
       </c>
-      <c r="G25" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3998,14 +4011,14 @@
       <c r="E26" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>930</v>
       </c>
-      <c r="G26" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -4015,14 +4028,14 @@
       <c r="E27" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>930</v>
       </c>
-      <c r="G27" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -4032,14 +4045,14 @@
       <c r="E28" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>930</v>
       </c>
-      <c r="G28" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -4049,14 +4062,14 @@
       <c r="E29" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>930</v>
       </c>
-      <c r="G29" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -4066,14 +4079,14 @@
       <c r="E30" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>930</v>
       </c>
-      <c r="G30" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -4083,14 +4096,14 @@
       <c r="E31" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>930</v>
       </c>
-      <c r="G31" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -4100,14 +4113,14 @@
       <c r="E32" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>930</v>
       </c>
-      <c r="G32" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -4117,14 +4130,14 @@
       <c r="E33" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>930</v>
       </c>
-      <c r="G33" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -4134,14 +4147,14 @@
       <c r="E34" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>930</v>
       </c>
-      <c r="G34" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -4151,14 +4164,14 @@
       <c r="E35" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>930</v>
       </c>
-      <c r="G35" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -4168,14 +4181,14 @@
       <c r="E36" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>930</v>
       </c>
-      <c r="G36" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -4185,14 +4198,14 @@
       <c r="E37" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>930</v>
       </c>
-      <c r="G37" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -4202,14 +4215,14 @@
       <c r="E38" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>930</v>
       </c>
-      <c r="G38" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -4219,14 +4232,14 @@
       <c r="E39" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>930</v>
       </c>
-      <c r="G39" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -4236,14 +4249,14 @@
       <c r="E40" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>930</v>
       </c>
-      <c r="G40" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -4253,14 +4266,14 @@
       <c r="E41" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>930</v>
       </c>
-      <c r="G41" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -4270,14 +4283,14 @@
       <c r="E42" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>930</v>
       </c>
-      <c r="G42" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -4287,14 +4300,14 @@
       <c r="E43" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>930</v>
       </c>
-      <c r="G43" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -4304,14 +4317,14 @@
       <c r="E44" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>930</v>
       </c>
-      <c r="G44" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -4321,14 +4334,14 @@
       <c r="E45" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>931</v>
       </c>
-      <c r="G45" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -4338,14 +4351,14 @@
       <c r="E46" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>931</v>
       </c>
-      <c r="G46" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -4355,14 +4368,14 @@
       <c r="E47" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>931</v>
       </c>
-      <c r="G47" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -4372,14 +4385,14 @@
       <c r="E48" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>931</v>
       </c>
-      <c r="G48" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -4389,14 +4402,14 @@
       <c r="E49" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>932</v>
       </c>
-      <c r="G49" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -4406,14 +4419,14 @@
       <c r="E50" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>932</v>
       </c>
-      <c r="G50" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -4423,14 +4436,14 @@
       <c r="E51" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>932</v>
       </c>
-      <c r="G51" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -4440,14 +4453,14 @@
       <c r="E52" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>932</v>
       </c>
-      <c r="G52" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -4457,14 +4470,14 @@
       <c r="E53" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>932</v>
       </c>
-      <c r="G53" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -4474,14 +4487,14 @@
       <c r="E54" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>932</v>
       </c>
-      <c r="G54" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -4491,14 +4504,14 @@
       <c r="E55" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>932</v>
       </c>
-      <c r="G55" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -4508,14 +4521,14 @@
       <c r="E56" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>932</v>
       </c>
-      <c r="G56" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -4525,14 +4538,14 @@
       <c r="E57" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>932</v>
       </c>
-      <c r="G57" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -4548,14 +4561,14 @@
       <c r="E58" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>933</v>
       </c>
-      <c r="G58" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -4571,14 +4584,14 @@
       <c r="E59" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>933</v>
       </c>
-      <c r="G59" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -4594,14 +4607,14 @@
       <c r="E60" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>933</v>
       </c>
-      <c r="G60" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -4617,14 +4630,14 @@
       <c r="E61" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>933</v>
       </c>
-      <c r="G61" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -4640,14 +4653,14 @@
       <c r="E62" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>933</v>
       </c>
-      <c r="G62" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -4663,14 +4676,14 @@
       <c r="E63" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>933</v>
       </c>
-      <c r="G63" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -4686,14 +4699,14 @@
       <c r="E64" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>933</v>
       </c>
-      <c r="G64" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -4709,14 +4722,14 @@
       <c r="E65" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>933</v>
       </c>
-      <c r="G65" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -4732,14 +4745,14 @@
       <c r="E66" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>933</v>
       </c>
-      <c r="G66" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -4755,14 +4768,14 @@
       <c r="E67" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>933</v>
       </c>
-      <c r="G67" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -4778,14 +4791,14 @@
       <c r="E68" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>933</v>
       </c>
-      <c r="G68" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -4801,14 +4814,14 @@
       <c r="E69" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>933</v>
       </c>
-      <c r="G69" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -4824,14 +4837,14 @@
       <c r="E70" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>933</v>
       </c>
-      <c r="G70" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -4847,14 +4860,14 @@
       <c r="E71" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>933</v>
       </c>
-      <c r="G71" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -4870,14 +4883,14 @@
       <c r="E72" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>933</v>
       </c>
-      <c r="G72" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -4893,14 +4906,14 @@
       <c r="E73" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>933</v>
       </c>
-      <c r="G73" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -4916,14 +4929,14 @@
       <c r="E74" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>933</v>
       </c>
-      <c r="G74" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -4939,14 +4952,14 @@
       <c r="E75" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>933</v>
       </c>
-      <c r="G75" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -4962,14 +4975,14 @@
       <c r="E76" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>933</v>
       </c>
-      <c r="G76" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -4985,14 +4998,14 @@
       <c r="E77" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>933</v>
       </c>
-      <c r="G77" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -5008,14 +5021,14 @@
       <c r="E78" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>933</v>
       </c>
-      <c r="G78" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -5031,14 +5044,14 @@
       <c r="E79" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>933</v>
       </c>
-      <c r="G79" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -5054,14 +5067,14 @@
       <c r="E80" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>933</v>
       </c>
-      <c r="G80" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -5071,14 +5084,14 @@
       <c r="E81" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>934</v>
       </c>
-      <c r="G81" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -5088,14 +5101,14 @@
       <c r="E82" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>934</v>
       </c>
-      <c r="G82" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -5105,14 +5118,14 @@
       <c r="E83" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>934</v>
       </c>
-      <c r="G83" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -5122,14 +5135,14 @@
       <c r="E84" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>934</v>
       </c>
-      <c r="G84" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -5139,14 +5152,14 @@
       <c r="E85" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>934</v>
       </c>
-      <c r="G85" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -5156,14 +5169,14 @@
       <c r="E86" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>934</v>
       </c>
-      <c r="G86" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -5173,14 +5186,14 @@
       <c r="E87" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>934</v>
       </c>
-      <c r="G87" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -5190,14 +5203,14 @@
       <c r="E88" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>934</v>
       </c>
-      <c r="G88" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -5207,14 +5220,14 @@
       <c r="E89" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>934</v>
       </c>
-      <c r="G89" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -5224,14 +5237,14 @@
       <c r="E90" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>934</v>
       </c>
-      <c r="G90" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -5241,14 +5254,14 @@
       <c r="E91" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>934</v>
       </c>
-      <c r="G91" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -5258,14 +5271,14 @@
       <c r="E92" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>934</v>
       </c>
-      <c r="G92" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -5275,14 +5288,14 @@
       <c r="E93" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>934</v>
       </c>
-      <c r="G93" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -5292,14 +5305,14 @@
       <c r="E94" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>934</v>
       </c>
-      <c r="G94" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -5309,14 +5322,14 @@
       <c r="E95" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>934</v>
       </c>
-      <c r="G95" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -5326,14 +5339,14 @@
       <c r="E96" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>934</v>
       </c>
-      <c r="G96" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -5343,14 +5356,14 @@
       <c r="E97" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>934</v>
       </c>
-      <c r="G97" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H97" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -5360,14 +5373,14 @@
       <c r="E98" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>934</v>
       </c>
-      <c r="G98" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -5377,14 +5390,14 @@
       <c r="E99" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>934</v>
       </c>
-      <c r="G99" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -5394,14 +5407,14 @@
       <c r="E100" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>934</v>
       </c>
-      <c r="G100" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H100" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -5411,14 +5424,14 @@
       <c r="E101" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>934</v>
       </c>
-      <c r="G101" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H101" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -5428,14 +5441,14 @@
       <c r="E102" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>935</v>
       </c>
-      <c r="G102" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -5445,14 +5458,14 @@
       <c r="E103" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>935</v>
       </c>
-      <c r="G103" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H103" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -5462,14 +5475,14 @@
       <c r="E104" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>935</v>
       </c>
-      <c r="G104" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H104" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -5479,14 +5492,14 @@
       <c r="E105" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>935</v>
       </c>
-      <c r="G105" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H105" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -5496,14 +5509,14 @@
       <c r="E106" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>935</v>
       </c>
-      <c r="G106" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H106" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -5513,14 +5526,14 @@
       <c r="E107" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>935</v>
       </c>
-      <c r="G107" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H107" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -5530,14 +5543,14 @@
       <c r="E108" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>935</v>
       </c>
-      <c r="G108" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H108" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -5547,14 +5560,14 @@
       <c r="E109" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>935</v>
       </c>
-      <c r="G109" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -5564,14 +5577,14 @@
       <c r="E110" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>935</v>
       </c>
-      <c r="G110" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -5581,14 +5594,14 @@
       <c r="E111" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>935</v>
       </c>
-      <c r="G111" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H111" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -5598,14 +5611,14 @@
       <c r="E112" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>935</v>
       </c>
-      <c r="G112" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H112" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -5621,14 +5634,14 @@
       <c r="E113" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>936</v>
       </c>
-      <c r="G113" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H113" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -5644,14 +5657,14 @@
       <c r="E114" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>936</v>
       </c>
-      <c r="G114" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H114" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -5667,14 +5680,14 @@
       <c r="E115" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>936</v>
       </c>
-      <c r="G115" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -5690,14 +5703,14 @@
       <c r="E116" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>936</v>
       </c>
-      <c r="G116" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -5713,14 +5726,14 @@
       <c r="E117" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>936</v>
       </c>
-      <c r="G117" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H117" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -5736,14 +5749,14 @@
       <c r="E118" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>936</v>
       </c>
-      <c r="G118" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H118" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -5759,14 +5772,14 @@
       <c r="E119" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>936</v>
       </c>
-      <c r="G119" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H119" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -5782,14 +5795,14 @@
       <c r="E120" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>936</v>
       </c>
-      <c r="G120" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -5805,14 +5818,14 @@
       <c r="E121" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>936</v>
       </c>
-      <c r="G121" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H121" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -5828,14 +5841,14 @@
       <c r="E122" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>936</v>
       </c>
-      <c r="G122" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H122" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -5851,14 +5864,14 @@
       <c r="E123" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>936</v>
       </c>
-      <c r="G123" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H123" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -5874,14 +5887,14 @@
       <c r="E124" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>936</v>
       </c>
-      <c r="G124" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H124" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -5897,14 +5910,14 @@
       <c r="E125" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>936</v>
       </c>
-      <c r="G125" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H125" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -5920,14 +5933,14 @@
       <c r="E126" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>936</v>
       </c>
-      <c r="G126" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H126" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -5943,14 +5956,14 @@
       <c r="E127" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>936</v>
       </c>
-      <c r="G127" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H127" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -5966,14 +5979,14 @@
       <c r="E128" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>937</v>
       </c>
-      <c r="G128" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H128" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -5989,14 +6002,14 @@
       <c r="E129" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>937</v>
       </c>
-      <c r="G129" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H129" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -6012,14 +6025,14 @@
       <c r="E130" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>937</v>
       </c>
-      <c r="G130" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H130" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -6035,14 +6048,14 @@
       <c r="E131" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>937</v>
       </c>
-      <c r="G131" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H131" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>137</v>
       </c>
@@ -6058,14 +6071,14 @@
       <c r="E132" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>937</v>
       </c>
-      <c r="G132" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H132" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>138</v>
       </c>
@@ -6081,14 +6094,14 @@
       <c r="E133" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>937</v>
       </c>
-      <c r="G133" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H133" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>139</v>
       </c>
@@ -6104,14 +6117,14 @@
       <c r="E134" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>937</v>
       </c>
-      <c r="G134" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H134" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -6127,14 +6140,14 @@
       <c r="E135" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>937</v>
       </c>
-      <c r="G135" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H135" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>141</v>
       </c>
@@ -6150,14 +6163,14 @@
       <c r="E136" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>937</v>
       </c>
-      <c r="G136" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H136" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>142</v>
       </c>
@@ -6173,14 +6186,14 @@
       <c r="E137" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>937</v>
       </c>
-      <c r="G137" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H137" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>143</v>
       </c>
@@ -6196,14 +6209,14 @@
       <c r="E138" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>937</v>
       </c>
-      <c r="G138" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H138" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -6219,14 +6232,14 @@
       <c r="E139" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>937</v>
       </c>
-      <c r="G139" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H139" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -6242,14 +6255,14 @@
       <c r="E140" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>937</v>
       </c>
-      <c r="G140" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H140" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>146</v>
       </c>
@@ -6265,14 +6278,14 @@
       <c r="E141" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>937</v>
       </c>
-      <c r="G141" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H141" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -6288,14 +6301,14 @@
       <c r="E142" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>937</v>
       </c>
-      <c r="G142" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H142" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>148</v>
       </c>
@@ -6305,14 +6318,14 @@
       <c r="E143" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>938</v>
       </c>
-      <c r="G143" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H143" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -6322,14 +6335,14 @@
       <c r="E144" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>938</v>
       </c>
-      <c r="G144" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H144" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>150</v>
       </c>
@@ -6339,14 +6352,14 @@
       <c r="E145" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>938</v>
       </c>
-      <c r="G145" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H145" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -6356,14 +6369,14 @@
       <c r="E146" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>938</v>
       </c>
-      <c r="G146" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H146" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -6373,14 +6386,14 @@
       <c r="E147" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>938</v>
       </c>
-      <c r="G147" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H147" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -6390,14 +6403,14 @@
       <c r="E148" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>938</v>
       </c>
-      <c r="G148" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H148" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>154</v>
       </c>
@@ -6407,14 +6420,14 @@
       <c r="E149" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>938</v>
       </c>
-      <c r="G149" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H149" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -6424,14 +6437,14 @@
       <c r="E150" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>938</v>
       </c>
-      <c r="G150" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H150" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -6441,14 +6454,14 @@
       <c r="E151" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>938</v>
       </c>
-      <c r="G151" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H151" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>157</v>
       </c>
@@ -6458,14 +6471,14 @@
       <c r="E152" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>938</v>
       </c>
-      <c r="G152" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H152" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>158</v>
       </c>
@@ -6475,14 +6488,14 @@
       <c r="E153" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>939</v>
       </c>
-      <c r="G153" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H153" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>159</v>
       </c>
@@ -6492,14 +6505,14 @@
       <c r="E154" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>939</v>
       </c>
-      <c r="G154" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H154" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>160</v>
       </c>
@@ -6509,14 +6522,14 @@
       <c r="E155" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>939</v>
       </c>
-      <c r="G155" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H155" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -6526,14 +6539,14 @@
       <c r="E156" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="F156" t="s">
+      <c r="G156" t="s">
         <v>939</v>
       </c>
-      <c r="G156" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H156" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -6543,14 +6556,14 @@
       <c r="E157" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>939</v>
       </c>
-      <c r="G157" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H157" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>163</v>
       </c>
@@ -6560,14 +6573,14 @@
       <c r="E158" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
         <v>939</v>
       </c>
-      <c r="G158" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H158" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -6577,14 +6590,14 @@
       <c r="E159" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="F159" t="s">
+      <c r="G159" t="s">
         <v>939</v>
       </c>
-      <c r="G159" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H159" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>165</v>
       </c>
@@ -6594,14 +6607,14 @@
       <c r="E160" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="F160" t="s">
+      <c r="G160" t="s">
         <v>939</v>
       </c>
-      <c r="G160" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H160" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>166</v>
       </c>
@@ -6611,14 +6624,14 @@
       <c r="E161" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>939</v>
       </c>
-      <c r="G161" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H161" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -6628,14 +6641,14 @@
       <c r="E162" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>939</v>
       </c>
-      <c r="G162" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H162" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -6645,14 +6658,14 @@
       <c r="E163" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163" t="s">
         <v>939</v>
       </c>
-      <c r="G163" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H163" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -6668,14 +6681,14 @@
       <c r="E164" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
         <v>939</v>
       </c>
-      <c r="G164" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H164" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -6691,14 +6704,14 @@
       <c r="E165" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>939</v>
       </c>
-      <c r="G165" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H165" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -6714,14 +6727,14 @@
       <c r="E166" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="F166" t="s">
+      <c r="G166" t="s">
         <v>939</v>
       </c>
-      <c r="G166" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H166" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -6737,14 +6750,14 @@
       <c r="E167" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="F167" t="s">
+      <c r="G167" t="s">
         <v>939</v>
       </c>
-      <c r="G167" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H167" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -6760,14 +6773,14 @@
       <c r="E168" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="F168" t="s">
+      <c r="G168" t="s">
         <v>939</v>
       </c>
-      <c r="G168" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H168" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -6777,14 +6790,14 @@
       <c r="E169" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="F169" t="s">
+      <c r="G169" t="s">
         <v>940</v>
       </c>
-      <c r="G169" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H169" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -6794,14 +6807,14 @@
       <c r="E170" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>940</v>
       </c>
-      <c r="G170" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H170" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>176</v>
       </c>
@@ -6811,14 +6824,14 @@
       <c r="E171" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
         <v>940</v>
       </c>
-      <c r="G171" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H171" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>177</v>
       </c>
@@ -6828,14 +6841,14 @@
       <c r="E172" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="F172" t="s">
+      <c r="G172" t="s">
         <v>940</v>
       </c>
-      <c r="G172" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H172" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>178</v>
       </c>
@@ -6845,14 +6858,14 @@
       <c r="E173" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="F173" t="s">
+      <c r="G173" t="s">
         <v>940</v>
       </c>
-      <c r="G173" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H173" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>179</v>
       </c>
@@ -6862,14 +6875,14 @@
       <c r="E174" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="F174" t="s">
+      <c r="G174" t="s">
         <v>940</v>
       </c>
-      <c r="G174" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H174" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>180</v>
       </c>
@@ -6879,14 +6892,14 @@
       <c r="E175" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="F175" t="s">
+      <c r="G175" t="s">
         <v>940</v>
       </c>
-      <c r="G175" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H175" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -6896,14 +6909,14 @@
       <c r="E176" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="F176" t="s">
+      <c r="G176" t="s">
         <v>940</v>
       </c>
-      <c r="G176" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H176" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -6913,14 +6926,14 @@
       <c r="E177" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="F177" t="s">
+      <c r="G177" t="s">
         <v>940</v>
       </c>
-      <c r="G177" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H177" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -6930,14 +6943,14 @@
       <c r="E178" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G178" t="s">
         <v>940</v>
       </c>
-      <c r="G178" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H178" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -6947,14 +6960,14 @@
       <c r="E179" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="F179" t="s">
+      <c r="G179" t="s">
         <v>941</v>
       </c>
-      <c r="G179" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H179" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -6964,14 +6977,14 @@
       <c r="E180" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="F180" t="s">
+      <c r="G180" t="s">
         <v>941</v>
       </c>
-      <c r="G180" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H180" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -6981,14 +6994,14 @@
       <c r="E181" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="F181" t="s">
+      <c r="G181" t="s">
         <v>941</v>
       </c>
-      <c r="G181" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H181" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -6998,14 +7011,14 @@
       <c r="E182" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="F182" t="s">
+      <c r="G182" t="s">
         <v>941</v>
       </c>
-      <c r="G182" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H182" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -7015,14 +7028,14 @@
       <c r="E183" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="F183" t="s">
+      <c r="G183" t="s">
         <v>941</v>
       </c>
-      <c r="G183" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H183" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -7032,14 +7045,14 @@
       <c r="E184" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="F184" t="s">
+      <c r="G184" t="s">
         <v>941</v>
       </c>
-      <c r="G184" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H184" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>190</v>
       </c>
@@ -7049,14 +7062,14 @@
       <c r="E185" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
         <v>941</v>
       </c>
-      <c r="G185" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H185" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>191</v>
       </c>
@@ -7066,14 +7079,14 @@
       <c r="E186" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="F186" t="s">
+      <c r="G186" t="s">
         <v>941</v>
       </c>
-      <c r="G186" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H186" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>192</v>
       </c>
@@ -7083,14 +7096,14 @@
       <c r="E187" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="F187" t="s">
+      <c r="G187" t="s">
         <v>941</v>
       </c>
-      <c r="G187" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H187" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>193</v>
       </c>
@@ -7100,14 +7113,14 @@
       <c r="E188" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="F188" t="s">
+      <c r="G188" t="s">
         <v>941</v>
       </c>
-      <c r="G188" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H188" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>194</v>
       </c>
@@ -7117,14 +7130,14 @@
       <c r="E189" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="F189" t="s">
+      <c r="G189" t="s">
         <v>941</v>
       </c>
-      <c r="G189" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H189" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>195</v>
       </c>
@@ -7134,14 +7147,14 @@
       <c r="E190" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>942</v>
       </c>
-      <c r="G190" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H190" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>196</v>
       </c>
@@ -7151,14 +7164,14 @@
       <c r="E191" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>942</v>
       </c>
-      <c r="G191" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H191" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>197</v>
       </c>
@@ -7168,14 +7181,14 @@
       <c r="E192" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="F192" t="s">
+      <c r="G192" t="s">
         <v>942</v>
       </c>
-      <c r="G192" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H192" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>198</v>
       </c>
@@ -7185,14 +7198,14 @@
       <c r="E193" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="F193" t="s">
+      <c r="G193" t="s">
         <v>942</v>
       </c>
-      <c r="G193" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H193" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>199</v>
       </c>
@@ -7202,14 +7215,14 @@
       <c r="E194" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="F194" t="s">
+      <c r="G194" t="s">
         <v>942</v>
       </c>
-      <c r="G194" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H194" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -7219,14 +7232,14 @@
       <c r="E195" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="F195" t="s">
+      <c r="G195" t="s">
         <v>942</v>
       </c>
-      <c r="G195" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H195" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>201</v>
       </c>
@@ -7236,14 +7249,14 @@
       <c r="E196" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="F196" t="s">
+      <c r="G196" t="s">
         <v>942</v>
       </c>
-      <c r="G196" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H196" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>202</v>
       </c>
@@ -7253,14 +7266,14 @@
       <c r="E197" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="F197" t="s">
+      <c r="G197" t="s">
         <v>942</v>
       </c>
-      <c r="G197" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H197" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>203</v>
       </c>
@@ -7270,14 +7283,14 @@
       <c r="E198" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="F198" t="s">
+      <c r="G198" t="s">
         <v>942</v>
       </c>
-      <c r="G198" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H198" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -7287,14 +7300,14 @@
       <c r="E199" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="F199" t="s">
+      <c r="G199" t="s">
         <v>942</v>
       </c>
-      <c r="G199" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H199" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -7304,14 +7317,14 @@
       <c r="E200" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="F200" t="s">
+      <c r="G200" t="s">
         <v>942</v>
       </c>
-      <c r="G200" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H200" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>206</v>
       </c>
@@ -7321,14 +7334,14 @@
       <c r="E201" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="F201" t="s">
+      <c r="G201" t="s">
         <v>942</v>
       </c>
-      <c r="G201" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H201" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>207</v>
       </c>
@@ -7338,14 +7351,14 @@
       <c r="E202" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="F202" t="s">
+      <c r="G202" t="s">
         <v>942</v>
       </c>
-      <c r="G202" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H202" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>208</v>
       </c>
@@ -7355,14 +7368,14 @@
       <c r="E203" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="F203" t="s">
+      <c r="G203" t="s">
         <v>942</v>
       </c>
-      <c r="G203" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H203" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -7372,14 +7385,14 @@
       <c r="E204" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="F204" t="s">
+      <c r="G204" t="s">
         <v>942</v>
       </c>
-      <c r="G204" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H204" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>210</v>
       </c>
@@ -7395,14 +7408,14 @@
       <c r="E205" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="F205" t="s">
+      <c r="G205" t="s">
         <v>942</v>
       </c>
-      <c r="G205" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H205" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>211</v>
       </c>
@@ -7418,14 +7431,14 @@
       <c r="E206" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="F206" t="s">
+      <c r="G206" t="s">
         <v>942</v>
       </c>
-      <c r="G206" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H206" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>212</v>
       </c>
@@ -7441,14 +7454,14 @@
       <c r="E207" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="F207" t="s">
+      <c r="G207" t="s">
         <v>942</v>
       </c>
-      <c r="G207" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H207" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>213</v>
       </c>
@@ -7464,14 +7477,14 @@
       <c r="E208" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="F208" t="s">
+      <c r="G208" t="s">
         <v>942</v>
       </c>
-      <c r="G208" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H208" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>214</v>
       </c>
@@ -7487,14 +7500,14 @@
       <c r="E209" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="F209" t="s">
+      <c r="G209" t="s">
         <v>942</v>
       </c>
-      <c r="G209" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H209" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>215</v>
       </c>
@@ -7510,14 +7523,14 @@
       <c r="E210" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="F210" t="s">
+      <c r="G210" t="s">
         <v>942</v>
       </c>
-      <c r="G210" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H210" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -7533,14 +7546,14 @@
       <c r="E211" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="F211" t="s">
+      <c r="G211" t="s">
         <v>942</v>
       </c>
-      <c r="G211" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H211" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>217</v>
       </c>
@@ -7556,14 +7569,14 @@
       <c r="E212" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="F212" t="s">
+      <c r="G212" t="s">
         <v>942</v>
       </c>
-      <c r="G212" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H212" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>218</v>
       </c>
@@ -7579,14 +7592,14 @@
       <c r="E213" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="F213" t="s">
+      <c r="G213" t="s">
         <v>942</v>
       </c>
-      <c r="G213" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H213" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>219</v>
       </c>
@@ -7602,14 +7615,14 @@
       <c r="E214" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="F214" t="s">
+      <c r="G214" t="s">
         <v>942</v>
       </c>
-      <c r="G214" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H214" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -7625,14 +7638,14 @@
       <c r="E215" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="F215" t="s">
+      <c r="G215" t="s">
         <v>942</v>
       </c>
-      <c r="G215" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H215" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>221</v>
       </c>
@@ -7648,14 +7661,14 @@
       <c r="E216" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="F216" t="s">
+      <c r="G216" t="s">
         <v>942</v>
       </c>
-      <c r="G216" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H216" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>222</v>
       </c>
@@ -7671,14 +7684,14 @@
       <c r="E217" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="F217" t="s">
+      <c r="G217" t="s">
         <v>942</v>
       </c>
-      <c r="G217" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H217" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>223</v>
       </c>
@@ -7694,14 +7707,14 @@
       <c r="E218" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="F218" t="s">
+      <c r="G218" t="s">
         <v>942</v>
       </c>
-      <c r="G218" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H218" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>224</v>
       </c>
@@ -7717,14 +7730,14 @@
       <c r="E219" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="F219" t="s">
+      <c r="G219" t="s">
         <v>942</v>
       </c>
-      <c r="G219" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H219" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>225</v>
       </c>
@@ -7740,14 +7753,14 @@
       <c r="E220" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="F220" t="s">
+      <c r="G220" t="s">
         <v>942</v>
       </c>
-      <c r="G220" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H220" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>226</v>
       </c>
@@ -7763,14 +7776,14 @@
       <c r="E221" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="F221" t="s">
+      <c r="G221" t="s">
         <v>942</v>
       </c>
-      <c r="G221" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H221" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>227</v>
       </c>
@@ -7786,14 +7799,14 @@
       <c r="E222" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="F222" t="s">
+      <c r="G222" t="s">
         <v>942</v>
       </c>
-      <c r="G222" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H222" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>228</v>
       </c>
@@ -7809,14 +7822,14 @@
       <c r="E223" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="F223" t="s">
+      <c r="G223" t="s">
         <v>942</v>
       </c>
-      <c r="G223" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H223" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>229</v>
       </c>
@@ -7832,14 +7845,14 @@
       <c r="E224" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="F224" t="s">
+      <c r="G224" t="s">
         <v>942</v>
       </c>
-      <c r="G224" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H224" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>230</v>
       </c>
@@ -7855,14 +7868,14 @@
       <c r="E225" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="F225" t="s">
+      <c r="G225" t="s">
         <v>942</v>
       </c>
-      <c r="G225" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H225" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>231</v>
       </c>
@@ -7878,14 +7891,14 @@
       <c r="E226" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="F226" t="s">
+      <c r="G226" t="s">
         <v>942</v>
       </c>
-      <c r="G226" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H226" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>232</v>
       </c>
@@ -7901,14 +7914,14 @@
       <c r="E227" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="F227" t="s">
+      <c r="G227" t="s">
         <v>942</v>
       </c>
-      <c r="G227" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H227" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>233</v>
       </c>
@@ -7924,14 +7937,14 @@
       <c r="E228" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="F228" t="s">
+      <c r="G228" t="s">
         <v>942</v>
       </c>
-      <c r="G228" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H228" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>234</v>
       </c>
@@ -7947,14 +7960,14 @@
       <c r="E229" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="F229" t="s">
+      <c r="G229" t="s">
         <v>942</v>
       </c>
-      <c r="G229" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H229" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>235</v>
       </c>
@@ -7970,14 +7983,14 @@
       <c r="E230" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="F230" t="s">
+      <c r="G230" t="s">
         <v>942</v>
       </c>
-      <c r="G230" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H230" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>236</v>
       </c>
@@ -7993,14 +8006,14 @@
       <c r="E231" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="F231" t="s">
+      <c r="G231" t="s">
         <v>942</v>
       </c>
-      <c r="G231" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H231" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>237</v>
       </c>
@@ -8016,14 +8029,14 @@
       <c r="E232" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="F232" t="s">
+      <c r="G232" t="s">
         <v>942</v>
       </c>
-      <c r="G232" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H232" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>238</v>
       </c>
@@ -8039,14 +8052,14 @@
       <c r="E233" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="F233" t="s">
+      <c r="G233" t="s">
         <v>942</v>
       </c>
-      <c r="G233" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H233" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>239</v>
       </c>
@@ -8062,14 +8075,14 @@
       <c r="E234" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="F234" t="s">
+      <c r="G234" t="s">
         <v>942</v>
       </c>
-      <c r="G234" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H234" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>240</v>
       </c>
@@ -8085,14 +8098,14 @@
       <c r="E235" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="F235" t="s">
+      <c r="G235" t="s">
         <v>942</v>
       </c>
-      <c r="G235" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H235" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>241</v>
       </c>
@@ -8108,14 +8121,14 @@
       <c r="E236" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="F236" t="s">
+      <c r="G236" t="s">
         <v>942</v>
       </c>
-      <c r="G236" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H236" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>242</v>
       </c>
@@ -8131,14 +8144,14 @@
       <c r="E237" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="F237" t="s">
+      <c r="G237" t="s">
         <v>942</v>
       </c>
-      <c r="G237" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H237" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>243</v>
       </c>
@@ -8154,14 +8167,14 @@
       <c r="E238" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="F238" t="s">
+      <c r="G238" t="s">
         <v>942</v>
       </c>
-      <c r="G238" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H238" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>244</v>
       </c>
@@ -8177,14 +8190,14 @@
       <c r="E239" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="F239" t="s">
+      <c r="G239" t="s">
         <v>942</v>
       </c>
-      <c r="G239" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H239" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>245</v>
       </c>
@@ -8200,14 +8213,14 @@
       <c r="E240" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="F240" t="s">
+      <c r="G240" t="s">
         <v>942</v>
       </c>
-      <c r="G240" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H240" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>246</v>
       </c>
@@ -8223,14 +8236,14 @@
       <c r="E241" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="F241" t="s">
+      <c r="G241" t="s">
         <v>942</v>
       </c>
-      <c r="G241" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H241" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>247</v>
       </c>
@@ -8246,14 +8259,14 @@
       <c r="E242" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="F242" t="s">
+      <c r="G242" t="s">
         <v>942</v>
       </c>
-      <c r="G242" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H242" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>248</v>
       </c>
@@ -8269,14 +8282,14 @@
       <c r="E243" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="F243" t="s">
+      <c r="G243" t="s">
         <v>942</v>
       </c>
-      <c r="G243" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H243" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>249</v>
       </c>
@@ -8292,14 +8305,14 @@
       <c r="E244" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="F244" t="s">
+      <c r="G244" t="s">
         <v>942</v>
       </c>
-      <c r="G244" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H244" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>250</v>
       </c>
@@ -8315,14 +8328,14 @@
       <c r="E245" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="F245" t="s">
+      <c r="G245" t="s">
         <v>942</v>
       </c>
-      <c r="G245" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H245" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>251</v>
       </c>
@@ -8338,14 +8351,14 @@
       <c r="E246" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="F246" t="s">
+      <c r="G246" t="s">
         <v>942</v>
       </c>
-      <c r="G246" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H246" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>252</v>
       </c>
@@ -8361,14 +8374,14 @@
       <c r="E247" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="F247" t="s">
+      <c r="G247" t="s">
         <v>942</v>
       </c>
-      <c r="G247" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H247" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>253</v>
       </c>
@@ -8384,14 +8397,14 @@
       <c r="E248" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="F248" t="s">
+      <c r="G248" t="s">
         <v>942</v>
       </c>
-      <c r="G248" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H248" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>254</v>
       </c>
@@ -8407,14 +8420,14 @@
       <c r="E249" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="F249" t="s">
+      <c r="G249" t="s">
         <v>942</v>
       </c>
-      <c r="G249" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H249" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>255</v>
       </c>
@@ -8430,14 +8443,14 @@
       <c r="E250" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="F250" t="s">
+      <c r="G250" t="s">
         <v>942</v>
       </c>
-      <c r="G250" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H250" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>256</v>
       </c>
@@ -8453,14 +8466,14 @@
       <c r="E251" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="F251" t="s">
+      <c r="G251" t="s">
         <v>942</v>
       </c>
-      <c r="G251" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H251" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>257</v>
       </c>
@@ -8476,14 +8489,14 @@
       <c r="E252" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="F252" t="s">
+      <c r="G252" t="s">
         <v>942</v>
       </c>
-      <c r="G252" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H252" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>258</v>
       </c>
@@ -8499,14 +8512,14 @@
       <c r="E253" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="F253" t="s">
+      <c r="G253" t="s">
         <v>942</v>
       </c>
-      <c r="G253" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H253" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>259</v>
       </c>
@@ -8522,14 +8535,14 @@
       <c r="E254" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="F254" t="s">
+      <c r="G254" t="s">
         <v>942</v>
       </c>
-      <c r="G254" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H254" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>260</v>
       </c>
@@ -8545,14 +8558,14 @@
       <c r="E255" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="F255" t="s">
+      <c r="G255" t="s">
         <v>942</v>
       </c>
-      <c r="G255" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H255" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>261</v>
       </c>
@@ -8568,14 +8581,14 @@
       <c r="E256" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="F256" t="s">
+      <c r="G256" t="s">
         <v>942</v>
       </c>
-      <c r="G256" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H256" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>262</v>
       </c>
@@ -8591,14 +8604,14 @@
       <c r="E257" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="F257" t="s">
+      <c r="G257" t="s">
         <v>942</v>
       </c>
-      <c r="G257" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H257" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>263</v>
       </c>
@@ -8614,14 +8627,14 @@
       <c r="E258" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="F258" t="s">
+      <c r="G258" t="s">
         <v>942</v>
       </c>
-      <c r="G258" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H258" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>264</v>
       </c>
@@ -8637,14 +8650,14 @@
       <c r="E259" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="F259" t="s">
+      <c r="G259" t="s">
         <v>942</v>
       </c>
-      <c r="G259" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H259" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>265</v>
       </c>
@@ -8660,14 +8673,14 @@
       <c r="E260" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="F260" t="s">
+      <c r="G260" t="s">
         <v>942</v>
       </c>
-      <c r="G260" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H260" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>266</v>
       </c>
@@ -8683,14 +8696,14 @@
       <c r="E261" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="F261" t="s">
+      <c r="G261" t="s">
         <v>942</v>
       </c>
-      <c r="G261" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H261" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>267</v>
       </c>
@@ -8706,14 +8719,14 @@
       <c r="E262" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="F262" t="s">
+      <c r="G262" t="s">
         <v>942</v>
       </c>
-      <c r="G262" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H262" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>268</v>
       </c>
@@ -8729,14 +8742,14 @@
       <c r="E263" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="F263" t="s">
+      <c r="G263" t="s">
         <v>942</v>
       </c>
-      <c r="G263" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H263" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>269</v>
       </c>
@@ -8752,14 +8765,14 @@
       <c r="E264" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="F264" t="s">
+      <c r="G264" t="s">
         <v>942</v>
       </c>
-      <c r="G264" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H264" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>270</v>
       </c>
@@ -8775,14 +8788,14 @@
       <c r="E265" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="F265" t="s">
+      <c r="G265" t="s">
         <v>942</v>
       </c>
-      <c r="G265" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H265" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>271</v>
       </c>
@@ -8798,14 +8811,14 @@
       <c r="E266" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="F266" t="s">
+      <c r="G266" t="s">
         <v>942</v>
       </c>
-      <c r="G266" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H266" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>272</v>
       </c>
@@ -8821,14 +8834,14 @@
       <c r="E267" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="F267" t="s">
+      <c r="G267" t="s">
         <v>942</v>
       </c>
-      <c r="G267" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H267" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>273</v>
       </c>
@@ -8844,14 +8857,14 @@
       <c r="E268" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="F268" t="s">
+      <c r="G268" t="s">
         <v>942</v>
       </c>
-      <c r="G268" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H268" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>274</v>
       </c>
@@ -8867,14 +8880,14 @@
       <c r="E269" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="F269" t="s">
+      <c r="G269" t="s">
         <v>942</v>
       </c>
-      <c r="G269" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H269" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>275</v>
       </c>
@@ -8890,14 +8903,14 @@
       <c r="E270" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="F270" t="s">
+      <c r="G270" t="s">
         <v>942</v>
       </c>
-      <c r="G270" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H270" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>276</v>
       </c>
@@ -8913,14 +8926,14 @@
       <c r="E271" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="F271" t="s">
+      <c r="G271" t="s">
         <v>942</v>
       </c>
-      <c r="G271" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H271" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>277</v>
       </c>
@@ -8936,14 +8949,14 @@
       <c r="E272" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="F272" t="s">
+      <c r="G272" t="s">
         <v>942</v>
       </c>
-      <c r="G272" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H272" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>278</v>
       </c>
@@ -8959,14 +8972,14 @@
       <c r="E273" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="F273" t="s">
+      <c r="G273" t="s">
         <v>942</v>
       </c>
-      <c r="G273" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H273" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>279</v>
       </c>
@@ -8982,14 +8995,14 @@
       <c r="E274" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="F274" t="s">
+      <c r="G274" t="s">
         <v>942</v>
       </c>
-      <c r="G274" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H274" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>280</v>
       </c>
@@ -9005,14 +9018,14 @@
       <c r="E275" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="F275" t="s">
+      <c r="G275" t="s">
         <v>942</v>
       </c>
-      <c r="G275" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H275" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>281</v>
       </c>
@@ -9028,14 +9041,14 @@
       <c r="E276" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="F276" t="s">
+      <c r="G276" t="s">
         <v>942</v>
       </c>
-      <c r="G276" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H276" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>282</v>
       </c>
@@ -9051,14 +9064,14 @@
       <c r="E277" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="F277" t="s">
+      <c r="G277" t="s">
         <v>942</v>
       </c>
-      <c r="G277" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H277" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>283</v>
       </c>
@@ -9074,14 +9087,14 @@
       <c r="E278" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="F278" t="s">
+      <c r="G278" t="s">
         <v>942</v>
       </c>
-      <c r="G278" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H278" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>284</v>
       </c>
@@ -9097,14 +9110,14 @@
       <c r="E279" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="F279" t="s">
+      <c r="G279" t="s">
         <v>942</v>
       </c>
-      <c r="G279" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H279" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>285</v>
       </c>
@@ -9120,14 +9133,14 @@
       <c r="E280" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="F280" t="s">
+      <c r="G280" t="s">
         <v>942</v>
       </c>
-      <c r="G280" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H280" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>286</v>
       </c>
@@ -9143,14 +9156,14 @@
       <c r="E281" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="F281" t="s">
+      <c r="G281" t="s">
         <v>942</v>
       </c>
-      <c r="G281" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H281" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>287</v>
       </c>
@@ -9166,14 +9179,14 @@
       <c r="E282" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="F282" t="s">
+      <c r="G282" t="s">
         <v>942</v>
       </c>
-      <c r="G282" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H282" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>288</v>
       </c>
@@ -9189,14 +9202,14 @@
       <c r="E283" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="F283" t="s">
+      <c r="G283" t="s">
         <v>942</v>
       </c>
-      <c r="G283" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H283" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>289</v>
       </c>
@@ -9212,14 +9225,14 @@
       <c r="E284" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="F284" t="s">
+      <c r="G284" t="s">
         <v>942</v>
       </c>
-      <c r="G284" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H284" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>290</v>
       </c>
@@ -9235,14 +9248,14 @@
       <c r="E285" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="F285" t="s">
+      <c r="G285" t="s">
         <v>942</v>
       </c>
-      <c r="G285" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H285" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>291</v>
       </c>
@@ -9258,14 +9271,14 @@
       <c r="E286" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="F286" t="s">
+      <c r="G286" t="s">
         <v>942</v>
       </c>
-      <c r="G286" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H286" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>292</v>
       </c>
@@ -9275,14 +9288,14 @@
       <c r="E287" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="F287" t="s">
+      <c r="G287" t="s">
         <v>943</v>
       </c>
-      <c r="G287" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H287" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>293</v>
       </c>
@@ -9292,14 +9305,14 @@
       <c r="E288" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="F288" t="s">
+      <c r="G288" t="s">
         <v>943</v>
       </c>
-      <c r="G288" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H288" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>294</v>
       </c>
@@ -9309,14 +9322,14 @@
       <c r="E289" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="F289" t="s">
+      <c r="G289" t="s">
         <v>943</v>
       </c>
-      <c r="G289" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H289" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>295</v>
       </c>
@@ -9326,14 +9339,14 @@
       <c r="E290" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="F290" t="s">
+      <c r="G290" t="s">
         <v>943</v>
       </c>
-      <c r="G290" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H290" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>296</v>
       </c>
@@ -9343,14 +9356,14 @@
       <c r="E291" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="F291" t="s">
+      <c r="G291" t="s">
         <v>943</v>
       </c>
-      <c r="G291" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H291" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>297</v>
       </c>
@@ -9360,14 +9373,14 @@
       <c r="E292" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="F292" t="s">
+      <c r="G292" t="s">
         <v>943</v>
       </c>
-      <c r="G292" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H292" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>298</v>
       </c>
@@ -9377,14 +9390,14 @@
       <c r="E293" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="F293" t="s">
+      <c r="G293" t="s">
         <v>943</v>
       </c>
-      <c r="G293" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H293" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>299</v>
       </c>
@@ -9394,14 +9407,14 @@
       <c r="E294" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="F294" t="s">
+      <c r="G294" t="s">
         <v>943</v>
       </c>
-      <c r="G294" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H294" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>300</v>
       </c>
@@ -9411,14 +9424,14 @@
       <c r="E295" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="F295" t="s">
+      <c r="G295" t="s">
         <v>943</v>
       </c>
-      <c r="G295" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H295" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>301</v>
       </c>
@@ -9428,14 +9441,14 @@
       <c r="E296" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="F296" t="s">
+      <c r="G296" t="s">
         <v>943</v>
       </c>
-      <c r="G296" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H296" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>302</v>
       </c>
@@ -9445,14 +9458,14 @@
       <c r="E297" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="F297" t="s">
+      <c r="G297" t="s">
         <v>943</v>
       </c>
-      <c r="G297" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H297" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>303</v>
       </c>
@@ -9462,14 +9475,14 @@
       <c r="E298" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="F298" t="s">
+      <c r="G298" t="s">
         <v>943</v>
       </c>
-      <c r="G298" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H298" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>304</v>
       </c>
@@ -9479,14 +9492,14 @@
       <c r="E299" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="F299" t="s">
+      <c r="G299" t="s">
         <v>943</v>
       </c>
-      <c r="G299" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H299" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>305</v>
       </c>
@@ -9503,13 +9516,16 @@
         <v>837</v>
       </c>
       <c r="F300" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G300" t="s">
         <v>944</v>
       </c>
-      <c r="G300" t="s">
+      <c r="H300" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>306</v>
       </c>
@@ -9526,13 +9542,16 @@
         <v>838</v>
       </c>
       <c r="F301" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G301" t="s">
         <v>944</v>
       </c>
-      <c r="G301" t="s">
+      <c r="H301" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>307</v>
       </c>
@@ -9549,13 +9568,16 @@
         <v>839</v>
       </c>
       <c r="F302" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G302" t="s">
         <v>944</v>
       </c>
-      <c r="G302" t="s">
+      <c r="H302" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>308</v>
       </c>
@@ -9572,13 +9594,16 @@
         <v>840</v>
       </c>
       <c r="F303" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G303" t="s">
         <v>944</v>
       </c>
-      <c r="G303" t="s">
+      <c r="H303" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>309</v>
       </c>
@@ -9595,13 +9620,16 @@
         <v>841</v>
       </c>
       <c r="F304" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G304" t="s">
         <v>944</v>
       </c>
-      <c r="G304" t="s">
+      <c r="H304" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>310</v>
       </c>
@@ -9618,13 +9646,16 @@
         <v>842</v>
       </c>
       <c r="F305" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G305" t="s">
         <v>944</v>
       </c>
-      <c r="G305" t="s">
+      <c r="H305" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>311</v>
       </c>
@@ -9641,13 +9672,16 @@
         <v>843</v>
       </c>
       <c r="F306" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G306" t="s">
         <v>944</v>
       </c>
-      <c r="G306" t="s">
+      <c r="H306" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>312</v>
       </c>
@@ -9664,13 +9698,16 @@
         <v>844</v>
       </c>
       <c r="F307" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G307" t="s">
         <v>944</v>
       </c>
-      <c r="G307" t="s">
+      <c r="H307" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>313</v>
       </c>
@@ -9687,13 +9724,16 @@
         <v>845</v>
       </c>
       <c r="F308" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G308" t="s">
         <v>944</v>
       </c>
-      <c r="G308" t="s">
+      <c r="H308" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>314</v>
       </c>
@@ -9710,13 +9750,16 @@
         <v>846</v>
       </c>
       <c r="F309" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G309" t="s">
         <v>944</v>
       </c>
-      <c r="G309" t="s">
+      <c r="H309" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>315</v>
       </c>
@@ -9733,13 +9776,16 @@
         <v>847</v>
       </c>
       <c r="F310" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G310" t="s">
         <v>944</v>
       </c>
-      <c r="G310" t="s">
+      <c r="H310" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>316</v>
       </c>
@@ -9756,13 +9802,16 @@
         <v>848</v>
       </c>
       <c r="F311" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G311" t="s">
         <v>944</v>
       </c>
-      <c r="G311" t="s">
+      <c r="H311" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>317</v>
       </c>
@@ -9779,13 +9828,16 @@
         <v>849</v>
       </c>
       <c r="F312" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G312" t="s">
         <v>944</v>
       </c>
-      <c r="G312" t="s">
+      <c r="H312" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>318</v>
       </c>
@@ -9802,13 +9854,16 @@
         <v>850</v>
       </c>
       <c r="F313" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G313" t="s">
         <v>944</v>
       </c>
-      <c r="G313" t="s">
+      <c r="H313" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>319</v>
       </c>
@@ -9825,13 +9880,16 @@
         <v>840</v>
       </c>
       <c r="F314" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G314" t="s">
         <v>944</v>
       </c>
-      <c r="G314" t="s">
+      <c r="H314" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>320</v>
       </c>
@@ -9848,13 +9906,16 @@
         <v>851</v>
       </c>
       <c r="F315" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G315" t="s">
         <v>944</v>
       </c>
-      <c r="G315" t="s">
+      <c r="H315" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>321</v>
       </c>
@@ -9871,13 +9932,16 @@
         <v>852</v>
       </c>
       <c r="F316" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G316" t="s">
         <v>944</v>
       </c>
-      <c r="G316" t="s">
+      <c r="H316" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>322</v>
       </c>
@@ -9894,13 +9958,16 @@
         <v>853</v>
       </c>
       <c r="F317" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G317" t="s">
         <v>944</v>
       </c>
-      <c r="G317" t="s">
+      <c r="H317" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>323</v>
       </c>
@@ -9917,13 +9984,16 @@
         <v>854</v>
       </c>
       <c r="F318" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G318" t="s">
         <v>944</v>
       </c>
-      <c r="G318" t="s">
+      <c r="H318" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>324</v>
       </c>
@@ -9940,13 +10010,16 @@
         <v>855</v>
       </c>
       <c r="F319" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G319" t="s">
         <v>944</v>
       </c>
-      <c r="G319" t="s">
+      <c r="H319" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>325</v>
       </c>
@@ -9963,13 +10036,16 @@
         <v>856</v>
       </c>
       <c r="F320" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G320" t="s">
         <v>944</v>
       </c>
-      <c r="G320" t="s">
+      <c r="H320" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>326</v>
       </c>
@@ -9986,13 +10062,16 @@
         <v>857</v>
       </c>
       <c r="F321" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G321" t="s">
         <v>944</v>
       </c>
-      <c r="G321" t="s">
+      <c r="H321" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>327</v>
       </c>
@@ -10009,13 +10088,16 @@
         <v>858</v>
       </c>
       <c r="F322" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G322" t="s">
         <v>944</v>
       </c>
-      <c r="G322" t="s">
+      <c r="H322" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>328</v>
       </c>
@@ -10032,13 +10114,16 @@
         <v>859</v>
       </c>
       <c r="F323" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G323" t="s">
         <v>944</v>
       </c>
-      <c r="G323" t="s">
+      <c r="H323" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>329</v>
       </c>
@@ -10055,13 +10140,16 @@
         <v>860</v>
       </c>
       <c r="F324" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G324" t="s">
         <v>944</v>
       </c>
-      <c r="G324" t="s">
+      <c r="H324" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>330</v>
       </c>
@@ -10078,13 +10166,16 @@
         <v>861</v>
       </c>
       <c r="F325" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G325" t="s">
         <v>944</v>
       </c>
-      <c r="G325" t="s">
+      <c r="H325" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>331</v>
       </c>
@@ -10101,13 +10192,16 @@
         <v>862</v>
       </c>
       <c r="F326" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G326" t="s">
         <v>944</v>
       </c>
-      <c r="G326" t="s">
+      <c r="H326" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>332</v>
       </c>
@@ -10124,13 +10218,16 @@
         <v>863</v>
       </c>
       <c r="F327" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G327" t="s">
         <v>944</v>
       </c>
-      <c r="G327" t="s">
+      <c r="H327" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>333</v>
       </c>
@@ -10147,13 +10244,16 @@
         <v>864</v>
       </c>
       <c r="F328" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G328" t="s">
         <v>944</v>
       </c>
-      <c r="G328" t="s">
+      <c r="H328" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>334</v>
       </c>
@@ -10170,13 +10270,16 @@
         <v>865</v>
       </c>
       <c r="F329" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G329" t="s">
         <v>944</v>
       </c>
-      <c r="G329" t="s">
+      <c r="H329" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>335</v>
       </c>
@@ -10193,13 +10296,16 @@
         <v>866</v>
       </c>
       <c r="F330" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G330" t="s">
         <v>944</v>
       </c>
-      <c r="G330" t="s">
+      <c r="H330" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>336</v>
       </c>
@@ -10216,13 +10322,16 @@
         <v>867</v>
       </c>
       <c r="F331" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G331" t="s">
         <v>944</v>
       </c>
-      <c r="G331" t="s">
+      <c r="H331" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>337</v>
       </c>
@@ -10239,13 +10348,16 @@
         <v>868</v>
       </c>
       <c r="F332" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G332" t="s">
         <v>944</v>
       </c>
-      <c r="G332" t="s">
+      <c r="H332" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>338</v>
       </c>
@@ -10262,13 +10374,16 @@
         <v>869</v>
       </c>
       <c r="F333" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G333" t="s">
         <v>944</v>
       </c>
-      <c r="G333" t="s">
+      <c r="H333" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>339</v>
       </c>
@@ -10285,13 +10400,16 @@
         <v>870</v>
       </c>
       <c r="F334" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G334" t="s">
         <v>944</v>
       </c>
-      <c r="G334" t="s">
+      <c r="H334" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>340</v>
       </c>
@@ -10308,13 +10426,16 @@
         <v>871</v>
       </c>
       <c r="F335" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G335" t="s">
         <v>944</v>
       </c>
-      <c r="G335" t="s">
+      <c r="H335" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>341</v>
       </c>
@@ -10331,13 +10452,16 @@
         <v>872</v>
       </c>
       <c r="F336" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G336" t="s">
         <v>944</v>
       </c>
-      <c r="G336" t="s">
+      <c r="H336" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>342</v>
       </c>
@@ -10354,13 +10478,16 @@
         <v>873</v>
       </c>
       <c r="F337" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G337" t="s">
         <v>944</v>
       </c>
-      <c r="G337" t="s">
+      <c r="H337" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>343</v>
       </c>
@@ -10377,13 +10504,16 @@
         <v>874</v>
       </c>
       <c r="F338" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G338" t="s">
         <v>944</v>
       </c>
-      <c r="G338" t="s">
+      <c r="H338" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>344</v>
       </c>
@@ -10400,13 +10530,16 @@
         <v>875</v>
       </c>
       <c r="F339" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G339" t="s">
         <v>944</v>
       </c>
-      <c r="G339" t="s">
+      <c r="H339" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>345</v>
       </c>
@@ -10423,13 +10556,16 @@
         <v>876</v>
       </c>
       <c r="F340" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G340" t="s">
         <v>944</v>
       </c>
-      <c r="G340" t="s">
+      <c r="H340" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>346</v>
       </c>
@@ -10446,13 +10582,16 @@
         <v>877</v>
       </c>
       <c r="F341" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G341" t="s">
         <v>944</v>
       </c>
-      <c r="G341" t="s">
+      <c r="H341" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>347</v>
       </c>
@@ -10469,13 +10608,16 @@
         <v>878</v>
       </c>
       <c r="F342" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G342" t="s">
         <v>944</v>
       </c>
-      <c r="G342" t="s">
+      <c r="H342" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>348</v>
       </c>
@@ -10492,13 +10634,16 @@
         <v>879</v>
       </c>
       <c r="F343" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G343" t="s">
         <v>944</v>
       </c>
-      <c r="G343" t="s">
+      <c r="H343" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>349</v>
       </c>
@@ -10515,13 +10660,16 @@
         <v>880</v>
       </c>
       <c r="F344" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G344" t="s">
         <v>944</v>
       </c>
-      <c r="G344" t="s">
+      <c r="H344" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>350</v>
       </c>
@@ -10538,13 +10686,16 @@
         <v>881</v>
       </c>
       <c r="F345" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G345" t="s">
         <v>944</v>
       </c>
-      <c r="G345" t="s">
+      <c r="H345" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>351</v>
       </c>
@@ -10561,13 +10712,16 @@
         <v>882</v>
       </c>
       <c r="F346" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G346" t="s">
         <v>944</v>
       </c>
-      <c r="G346" t="s">
+      <c r="H346" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>352</v>
       </c>
@@ -10584,13 +10738,16 @@
         <v>883</v>
       </c>
       <c r="F347" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G347" t="s">
         <v>944</v>
       </c>
-      <c r="G347" t="s">
+      <c r="H347" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>353</v>
       </c>
@@ -10607,13 +10764,16 @@
         <v>884</v>
       </c>
       <c r="F348" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G348" t="s">
         <v>944</v>
       </c>
-      <c r="G348" t="s">
+      <c r="H348" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>354</v>
       </c>
@@ -10630,13 +10790,16 @@
         <v>885</v>
       </c>
       <c r="F349" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G349" t="s">
         <v>944</v>
       </c>
-      <c r="G349" t="s">
+      <c r="H349" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>355</v>
       </c>
@@ -10653,13 +10816,16 @@
         <v>886</v>
       </c>
       <c r="F350" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G350" t="s">
         <v>944</v>
       </c>
-      <c r="G350" t="s">
+      <c r="H350" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>356</v>
       </c>
@@ -10676,13 +10842,16 @@
         <v>887</v>
       </c>
       <c r="F351" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G351" t="s">
         <v>944</v>
       </c>
-      <c r="G351" t="s">
+      <c r="H351" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>357</v>
       </c>
@@ -10699,13 +10868,16 @@
         <v>888</v>
       </c>
       <c r="F352" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G352" t="s">
         <v>944</v>
       </c>
-      <c r="G352" t="s">
+      <c r="H352" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>358</v>
       </c>
@@ -10722,13 +10894,16 @@
         <v>889</v>
       </c>
       <c r="F353" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G353" t="s">
         <v>944</v>
       </c>
-      <c r="G353" t="s">
+      <c r="H353" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>359</v>
       </c>
@@ -10745,13 +10920,16 @@
         <v>890</v>
       </c>
       <c r="F354" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G354" t="s">
         <v>944</v>
       </c>
-      <c r="G354" t="s">
+      <c r="H354" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>360</v>
       </c>
@@ -10768,13 +10946,16 @@
         <v>891</v>
       </c>
       <c r="F355" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G355" t="s">
         <v>944</v>
       </c>
-      <c r="G355" t="s">
+      <c r="H355" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>361</v>
       </c>
@@ -10791,13 +10972,16 @@
         <v>892</v>
       </c>
       <c r="F356" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G356" t="s">
         <v>944</v>
       </c>
-      <c r="G356" t="s">
+      <c r="H356" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>362</v>
       </c>
@@ -10814,13 +10998,16 @@
         <v>893</v>
       </c>
       <c r="F357" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G357" t="s">
         <v>944</v>
       </c>
-      <c r="G357" t="s">
+      <c r="H357" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>363</v>
       </c>
@@ -10837,13 +11024,16 @@
         <v>894</v>
       </c>
       <c r="F358" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G358" t="s">
         <v>944</v>
       </c>
-      <c r="G358" t="s">
+      <c r="H358" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>364</v>
       </c>
@@ -10860,13 +11050,16 @@
         <v>895</v>
       </c>
       <c r="F359" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G359" t="s">
         <v>944</v>
       </c>
-      <c r="G359" t="s">
+      <c r="H359" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>365</v>
       </c>
@@ -10883,13 +11076,16 @@
         <v>896</v>
       </c>
       <c r="F360" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G360" t="s">
         <v>944</v>
       </c>
-      <c r="G360" t="s">
+      <c r="H360" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>366</v>
       </c>
@@ -10903,13 +11099,16 @@
         <v>554</v>
       </c>
       <c r="F361" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G361" t="s">
         <v>944</v>
       </c>
-      <c r="G361" t="s">
+      <c r="H361" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>367</v>
       </c>
@@ -10926,13 +11125,16 @@
         <v>897</v>
       </c>
       <c r="F362" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G362" t="s">
         <v>944</v>
       </c>
-      <c r="G362" t="s">
+      <c r="H362" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>368</v>
       </c>
@@ -10949,13 +11151,16 @@
         <v>898</v>
       </c>
       <c r="F363" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G363" t="s">
         <v>944</v>
       </c>
-      <c r="G363" t="s">
+      <c r="H363" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>369</v>
       </c>
@@ -10969,13 +11174,16 @@
         <v>496</v>
       </c>
       <c r="F364" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G364" t="s">
         <v>944</v>
       </c>
-      <c r="G364" t="s">
+      <c r="H364" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>370</v>
       </c>
@@ -10989,13 +11197,16 @@
         <v>497</v>
       </c>
       <c r="F365" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G365" t="s">
         <v>944</v>
       </c>
-      <c r="G365" t="s">
+      <c r="H365" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>371</v>
       </c>
@@ -11009,13 +11220,16 @@
         <v>556</v>
       </c>
       <c r="F366" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G366" t="s">
         <v>944</v>
       </c>
-      <c r="G366" t="s">
+      <c r="H366" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>372</v>
       </c>
@@ -11032,13 +11246,16 @@
         <v>899</v>
       </c>
       <c r="F367" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G367" t="s">
         <v>944</v>
       </c>
-      <c r="G367" t="s">
+      <c r="H367" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>477</v>
       </c>
@@ -11049,13 +11266,16 @@
         <v>498</v>
       </c>
       <c r="F368" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G368" t="s">
         <v>944</v>
       </c>
-      <c r="G368" t="s">
+      <c r="H368" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>478</v>
       </c>
@@ -11066,13 +11286,16 @@
         <v>558</v>
       </c>
       <c r="F369" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G369" t="s">
         <v>944</v>
       </c>
-      <c r="G369" t="s">
+      <c r="H369" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>373</v>
       </c>
@@ -11089,13 +11312,16 @@
         <v>900</v>
       </c>
       <c r="F370" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G370" t="s">
         <v>944</v>
       </c>
-      <c r="G370" t="s">
+      <c r="H370" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>374</v>
       </c>
@@ -11112,13 +11338,16 @@
         <v>901</v>
       </c>
       <c r="F371" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G371" t="s">
         <v>944</v>
       </c>
-      <c r="G371" t="s">
+      <c r="H371" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>375</v>
       </c>
@@ -11135,13 +11364,16 @@
         <v>902</v>
       </c>
       <c r="F372" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G372" t="s">
         <v>944</v>
       </c>
-      <c r="G372" t="s">
+      <c r="H372" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>376</v>
       </c>
@@ -11158,13 +11390,16 @@
         <v>903</v>
       </c>
       <c r="F373" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G373" t="s">
         <v>944</v>
       </c>
-      <c r="G373" t="s">
+      <c r="H373" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>377</v>
       </c>
@@ -11181,13 +11416,16 @@
         <v>904</v>
       </c>
       <c r="F374" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G374" t="s">
         <v>944</v>
       </c>
-      <c r="G374" t="s">
+      <c r="H374" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>378</v>
       </c>
@@ -11204,13 +11442,16 @@
         <v>905</v>
       </c>
       <c r="F375" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G375" t="s">
         <v>944</v>
       </c>
-      <c r="G375" t="s">
+      <c r="H375" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>379</v>
       </c>
@@ -11227,13 +11468,16 @@
         <v>906</v>
       </c>
       <c r="F376" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G376" t="s">
         <v>944</v>
       </c>
-      <c r="G376" t="s">
+      <c r="H376" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>380</v>
       </c>
@@ -11250,13 +11494,16 @@
         <v>907</v>
       </c>
       <c r="F377" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G377" t="s">
         <v>944</v>
       </c>
-      <c r="G377" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H377" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>381</v>
       </c>
@@ -11273,13 +11520,16 @@
         <v>908</v>
       </c>
       <c r="F378" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G378" t="s">
         <v>944</v>
       </c>
-      <c r="G378" t="s">
+      <c r="H378" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>382</v>
       </c>
@@ -11296,13 +11546,16 @@
         <v>909</v>
       </c>
       <c r="F379" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G379" t="s">
         <v>944</v>
       </c>
-      <c r="G379" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H379" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>383</v>
       </c>
@@ -11319,13 +11572,16 @@
         <v>909</v>
       </c>
       <c r="F380" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G380" t="s">
         <v>944</v>
       </c>
-      <c r="G380" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H380" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>384</v>
       </c>
@@ -11342,13 +11598,16 @@
         <v>909</v>
       </c>
       <c r="F381" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G381" t="s">
         <v>944</v>
       </c>
-      <c r="G381" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H381" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>385</v>
       </c>
@@ -11365,13 +11624,16 @@
         <v>910</v>
       </c>
       <c r="F382" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G382" t="s">
         <v>944</v>
       </c>
-      <c r="G382" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H382" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>386</v>
       </c>
@@ -11388,13 +11650,16 @@
         <v>911</v>
       </c>
       <c r="F383" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G383" t="s">
         <v>944</v>
       </c>
-      <c r="G383" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H383" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>387</v>
       </c>
@@ -11411,13 +11676,16 @@
         <v>911</v>
       </c>
       <c r="F384" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G384" t="s">
         <v>944</v>
       </c>
-      <c r="G384" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H384" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>388</v>
       </c>
@@ -11434,13 +11702,16 @@
         <v>911</v>
       </c>
       <c r="F385" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G385" t="s">
         <v>944</v>
       </c>
-      <c r="G385" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H385" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>389</v>
       </c>
@@ -11457,13 +11728,16 @@
         <v>911</v>
       </c>
       <c r="F386" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G386" t="s">
         <v>944</v>
       </c>
-      <c r="G386" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H386" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>390</v>
       </c>
@@ -11480,13 +11754,16 @@
         <v>912</v>
       </c>
       <c r="F387" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G387" t="s">
         <v>944</v>
       </c>
-      <c r="G387" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H387" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>391</v>
       </c>
@@ -11503,13 +11780,16 @@
         <v>912</v>
       </c>
       <c r="F388" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G388" t="s">
         <v>944</v>
       </c>
-      <c r="G388" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H388" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>392</v>
       </c>
@@ -11526,13 +11806,16 @@
         <v>912</v>
       </c>
       <c r="F389" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G389" t="s">
         <v>944</v>
       </c>
-      <c r="G389" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H389" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>393</v>
       </c>
@@ -11549,13 +11832,16 @@
         <v>912</v>
       </c>
       <c r="F390" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G390" t="s">
         <v>944</v>
       </c>
-      <c r="G390" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H390" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>394</v>
       </c>
@@ -11572,13 +11858,16 @@
         <v>913</v>
       </c>
       <c r="F391" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G391" t="s">
         <v>944</v>
       </c>
-      <c r="G391" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H391" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>395</v>
       </c>
@@ -11595,13 +11884,16 @@
         <v>914</v>
       </c>
       <c r="F392" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G392" t="s">
         <v>944</v>
       </c>
-      <c r="G392" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H392" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>396</v>
       </c>
@@ -11618,13 +11910,16 @@
         <v>915</v>
       </c>
       <c r="F393" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G393" t="s">
         <v>944</v>
       </c>
-      <c r="G393" t="s">
+      <c r="H393" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>397</v>
       </c>
@@ -11641,13 +11936,16 @@
         <v>916</v>
       </c>
       <c r="F394" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G394" t="s">
         <v>944</v>
       </c>
-      <c r="G394" t="s">
+      <c r="H394" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>398</v>
       </c>
@@ -11664,13 +11962,16 @@
         <v>917</v>
       </c>
       <c r="F395" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G395" t="s">
         <v>944</v>
       </c>
-      <c r="G395" t="s">
+      <c r="H395" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>399</v>
       </c>
@@ -11687,13 +11988,16 @@
         <v>918</v>
       </c>
       <c r="F396" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G396" t="s">
         <v>944</v>
       </c>
-      <c r="G396" t="s">
+      <c r="H396" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>400</v>
       </c>
@@ -11710,13 +12014,16 @@
         <v>919</v>
       </c>
       <c r="F397" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G397" t="s">
         <v>944</v>
       </c>
-      <c r="G397" t="s">
+      <c r="H397" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>401</v>
       </c>
@@ -11733,13 +12040,16 @@
         <v>920</v>
       </c>
       <c r="F398" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G398" t="s">
         <v>944</v>
       </c>
-      <c r="G398" t="s">
+      <c r="H398" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>402</v>
       </c>
@@ -11756,13 +12066,16 @@
         <v>921</v>
       </c>
       <c r="F399" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G399" t="s">
         <v>944</v>
       </c>
-      <c r="G399" t="s">
+      <c r="H399" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>403</v>
       </c>
@@ -11779,13 +12092,16 @@
         <v>922</v>
       </c>
       <c r="F400" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G400" t="s">
         <v>944</v>
       </c>
-      <c r="G400" t="s">
+      <c r="H400" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>404</v>
       </c>
@@ -11802,13 +12118,16 @@
         <v>923</v>
       </c>
       <c r="F401" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G401" t="s">
         <v>944</v>
       </c>
-      <c r="G401" t="s">
+      <c r="H401" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>405</v>
       </c>
@@ -11825,13 +12144,16 @@
         <v>924</v>
       </c>
       <c r="F402" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G402" t="s">
         <v>944</v>
       </c>
-      <c r="G402" t="s">
+      <c r="H402" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>406</v>
       </c>
@@ -11848,13 +12170,16 @@
         <v>925</v>
       </c>
       <c r="F403" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G403" t="s">
         <v>944</v>
       </c>
-      <c r="G403" t="s">
+      <c r="H403" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>407</v>
       </c>
@@ -11871,13 +12196,16 @@
         <v>926</v>
       </c>
       <c r="F404" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G404" t="s">
         <v>944</v>
       </c>
-      <c r="G404" t="s">
+      <c r="H404" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>408</v>
       </c>
@@ -11894,13 +12222,16 @@
         <v>927</v>
       </c>
       <c r="F405" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G405" t="s">
         <v>944</v>
       </c>
-      <c r="G405" t="s">
+      <c r="H405" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>409</v>
       </c>
@@ -11914,13 +12245,16 @@
         <v>928</v>
       </c>
       <c r="F406" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G406" t="s">
         <v>944</v>
       </c>
-      <c r="G406" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H406" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>410</v>
       </c>
@@ -11934,11 +12268,17 @@
         <v>929</v>
       </c>
       <c r="F407" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G407" t="s">
         <v>944</v>
       </c>
-      <c r="G407" t="s">
-        <v>1030</v>
-      </c>
+      <c r="H407" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F408"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
